--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <s:workbookPr/>
   <s:bookViews>
     <s:workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240"/>
@@ -2273,11 +2273,20 @@
   <s:si>
     <s:t>TC-LOGOUT-02</s:t>
   </s:si>
+  <s:si>
+    <s:t>1. Нажать кнопку "гамбургер" для открытия бокового меню.
+2. Проверить состояние пункта "Main".
+3. Проверить состояние пункта "News".
+4. Проверить состояние пункта "About".
+5. Нажать пункт "News".
+6. Вернуться в раздел "Main"
+7. Нажать пункт "About".</s:t>
+  </s:si>
 </s:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<s:styleSheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:vyd="http://volga.yandex.com/schemas/document/model">
+<s:styleSheet xmlns:vyd="http://volga.yandex.com/schemas/document/model" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:numFmts count="0"/>
   <s:fonts count="10">
     <s:font>
@@ -3273,7 +3282,7 @@
       <s:c r="K16" s="37"/>
       <s:c r="L16" s="37"/>
     </s:row>
-    <s:row r="17" ht="90">
+    <s:row r="17" ht="92.25">
       <s:c r="A17" s="35" t="s">
         <s:v>91</s:v>
       </s:c>
@@ -3284,7 +3293,7 @@
         <s:v>495</s:v>
       </s:c>
       <s:c r="D17" s="35" t="s">
-        <s:v>521</s:v>
+        <s:v>644</s:v>
       </s:c>
       <s:c r="E17" s="35" t="s">
         <s:v>493</s:v>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr/>
   <s:bookViews>
     <s:workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240"/>
@@ -2282,13 +2282,64 @@
 6. Вернуться в раздел "Main"
 7. Нажать пункт "About".</s:t>
   </s:si>
+  <s:si>
+    <s:t>1. Нажать на верхней панели кнопку перехода в "Quotes".
+2. Выбрать цитату.
+3. Нажать стрелку у одной из цитат.
+4. Еще раз нажать стрелку у той же цитаты.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Нажать на верхней панели кнопку перехода в "Quotes".
+2. Нажать стрелку у одной из цитат.
+3. Еще раз нажать стрелку у той же цитаты.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Открывается вкладка Quotes с заголовком "Love is all".
+2. Под цитатой раскрывается отзыв пользователя.
+3. Отзыв скрывается.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Полный E2E сценарий редактирования новости</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к редактированию существующей новости.
+2. Проверить, что поля предзаполнены валидными данными
+3. Проверить состояние чекбокса "Active"
+</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к редактированию существующей новости.
+2. Проверить, что поля предзаполнены валидными данными
+3. Проверить состояние чекбокса "Active"
+4. Изменить поле "Title"</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к редактированию существующей новости.
+2. Проверить, что поля предзаполнены валидными данными
+3. Проверить состояние чекбокса "Active"
+4. Изменить поле "Title"
+5. Проверить, что поле "Title" в новости обновилось</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Все поля формы предзаполнены данными новости.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Все поля формы предзаполнены данными новости.
+2. Новость обновилась и отображается в списке новостей</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Полный E2E сценарий редактирования новости с проверкой предзаполнения полей</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Полный E2E сценарий удаления новости</s:t>
+  </s:si>
 </s:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<s:styleSheet xmlns:vyd="http://volga.yandex.com/schemas/document/model" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<s:styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:vyd="http://volga.yandex.com/schemas/document/model" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:numFmts count="0"/>
-  <s:fonts count="10">
+  <s:fonts count="12">
     <s:font>
       <s:name val="Arial"/>
       <s:family val="2"/>
@@ -2331,8 +2382,16 @@
       <s:b val="1"/>
       <s:sz val="12"/>
     </s:font>
+    <s:font>
+      <s:name val="JetBrains Mono"/>
+      <s:color rgb="FFBCBEC4"/>
+    </s:font>
+    <s:font>
+      <s:name val="JetBrains Mono"/>
+      <s:color rgb="FF000000"/>
+    </s:font>
   </s:fonts>
-  <s:fills count="3">
+  <s:fills count="5">
     <s:fill>
       <s:patternFill patternType="none"/>
     </s:fill>
@@ -2342,6 +2401,17 @@
     <s:fill>
       <s:patternFill patternType="solid">
         <s:fgColor rgb="FFFFFFFF"/>
+      </s:patternFill>
+    </s:fill>
+    <s:fill>
+      <s:patternFill patternType="solid">
+        <s:fgColor rgb="FF1E1F22"/>
+      </s:patternFill>
+    </s:fill>
+    <s:fill>
+      <s:patternFill patternType="solid">
+        <s:fgColor rgb="FFFFFFFF"/>
+        <s:bgColor rgb="FFFFFFFF"/>
       </s:patternFill>
     </s:fill>
   </s:fills>
@@ -2390,7 +2460,7 @@
   <s:cellStyleXfs count="1">
     <s:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </s:cellStyleXfs>
-  <s:cellXfs count="43">
+  <s:cellXfs count="48">
     <s:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <s:xf fontId="1" fillId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <s:alignment horizontal="left" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
@@ -2512,6 +2582,15 @@
       <s:alignment vertical="center" mc:Ignorable="vyd"/>
     </s:xf>
     <s:xf borderId="4" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="10" fillId="3" applyFont="1" applyFill="1"/>
+    <s:xf fontId="10" fillId="4" applyFont="1" applyFill="1"/>
+    <s:xf fontId="11" fillId="4" applyFont="1" applyFill="1"/>
+    <s:xf fontId="11" fillId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <s:alignment vertical="center" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="11" fillId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
     </s:xf>
   </s:cellXfs>
@@ -4220,12 +4299,12 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="44" ht="68.25">
+    <s:row r="44" ht="69.75">
       <s:c r="A44" s="35" t="s">
         <s:v>239</s:v>
       </s:c>
-      <s:c r="B44" s="35" t="s">
-        <s:v>240</s:v>
+      <s:c r="B44" s="47" t="s">
+        <s:v>655</s:v>
       </s:c>
       <s:c r="C44" s="35" t="s">
         <s:v>149</s:v>
@@ -4947,10 +5026,10 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J63" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K63" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L63" s="35" t="s">
         <s:v>510</s:v>
@@ -5086,24 +5165,24 @@
       <s:c r="K67" s="37"/>
       <s:c r="L67" s="37"/>
     </s:row>
-    <s:row r="68" ht="35.25">
+    <s:row r="68" ht="92.25">
       <s:c r="A68" s="35" t="s">
         <s:v>320</s:v>
       </s:c>
       <s:c r="B68" s="35" t="s">
-        <s:v>321</s:v>
+        <s:v>654</s:v>
       </s:c>
       <s:c r="C68" s="35" t="s">
         <s:v>322</s:v>
       </s:c>
       <s:c r="D68" s="35" t="s">
-        <s:v>323</s:v>
+        <s:v>651</s:v>
       </s:c>
       <s:c r="E68" s="35" t="s">
-        <s:v>324</s:v>
+        <s:v>653</s:v>
       </s:c>
       <s:c r="F68" s="35" t="s">
-        <s:v>324</s:v>
+        <s:v>653</s:v>
       </s:c>
       <s:c r="G68" s="35" t="s">
         <s:v>42</s:v>
@@ -5330,7 +5409,7 @@
       <s:c r="K74" s="37"/>
       <s:c r="L74" s="37"/>
     </s:row>
-    <s:row r="75" ht="68.25">
+    <s:row r="75" ht="69.75">
       <s:c r="A75" s="35" t="s">
         <s:v>352</s:v>
       </s:c>
@@ -5341,13 +5420,13 @@
         <s:v>169</s:v>
       </s:c>
       <s:c r="D75" s="35" t="s">
-        <s:v>354</s:v>
+        <s:v>646</s:v>
       </s:c>
       <s:c r="E75" s="35" t="s">
-        <s:v>355</s:v>
+        <s:v>647</s:v>
       </s:c>
       <s:c r="F75" s="35" t="s">
-        <s:v>355</s:v>
+        <s:v>647</s:v>
       </s:c>
       <s:c r="G75" s="35" t="s">
         <s:v>42</s:v>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -2333,13 +2333,295 @@
   <s:si>
     <s:t>Полный E2E сценарий удаления новости</s:t>
   </s:si>
+  <s:si>
+    <s:t>Негативная авторизация с различными невалидными данными</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Параметризованный тест с набором данных:
+1. Логин: invalid, Пароль: valid
+2. Логин: valid, Пароль: invalid
+3. Логин: LOGIN, Пароль: valid
+4. Логин: valid, Пароль: PASSWORD
+5. Логин: log in, Пароль: valid
+Для каждого набора: ввести данные, нажать SIGN IN</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Появляется сообщение об ошибке "Something went wrong. Try again later."</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Объединяет невалидные сценарии авторизации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг). Проверку адаптивности целесообразно проводить при ручном тестировании</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация пустых полей</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Параметризованный тест с набором данных:
+1. Логин: пусто, Пароль: valid
+2. Логин: valid, Пароль: пусто
+3. Логин: " " (пробелы), Пароль: valid
+4. Логин: valid, Пароль: " " (пробелы)
+Для каждого набора: ввести данные, нажать SIGN IN</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Появляется сообщение "Login and password cannot be empty"</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Ошибка валидации
+2. Ошибка валидации
+3. Ошибка валидации
+4. Ошибка валидации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Объединяет проверки пустых полей и полей из пробелов</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Параметризованный тест с набором данных:
+1. Логин: invalid, Пароль: valid
+2. Логин: valid, Пароль: invalid
+3. Логин: LOGIN, Пароль: valid
+4. Логин: valid, Пароль: PASSWORD
+5. Логин: log in, Пароль: valid
+6. Логин: " логин ", Пароль: valid (с пробелами по краям)
+Для каждого набора: ввести данные, нажать SIGN IN</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Объединяет невалидные сценарии (неверные данные, upper case, пробелы)</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Параметризованный тест с набором данных:
+1. Логин: invalid, Пароль: valid
+2. Логин: valid, Пароль: invalid
+3. Логин: LOGIN, Пароль: valid
+4. Логин: valid, Пароль: PASSWORD
+5. Логин: log in, Пароль: valid
+6. Логин: " логин ", Пароль: valid (с пробелами в начале/конце)
+Для каждого набора: ввести данные, нажать SIGN IN</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Для набора №6: Авторизация успешна</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): пробелы в начале/конце логина должны приводить к ошибке авторизации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Для набора №6: Авторизация успешна
+В остальных наборах ошибка валидации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест с набором №6 выявил дефект (баг): пробелы в начале/конце логина должны приводить к ошибке авторизации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест с набором №6 выявил дефект (баг). Пробелы в начале/конце логина должны приводить к ошибке авторизации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Происходит переход на экран полного списка новостей (экран "News").</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к полному списку новостей (ALL NEWS).</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Невозможно обеспечить пустой список новостей в автоматическом режиме</s:t>
+  </s:si>
+  <s:si>
+    <s:t>2. Проверить отображение.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к полному списку новостей.
+2. Проверить элементы для первой новости.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): отсутствует валидация на корректность диапазона дат</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): пункт "News" должен быть неактивным, пункт  активным.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): пункт "News" должен быть неактивным, пункт  "About" активным.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Происходит переход на экран полного списка новостей (экран ).</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Происходит переход на экран полного списка новостей (экран "News".).</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Отображаются кнопки: "Сортировка", "Фильтр", "Редактирование".</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Открыть экран фильтрации.
+2. В поле "Start Date" выбрать прошедшую дату
+3. В поле "End Date" выбрать текущую дату
+4. Нажать "FILTER".</s:t>
+  </s:si>
+  <s:si>
+    <s:t>TC-NEWS-CP-9</s:t>
+  </s:si>
+  <s:si>
+    <s:t>"Publication date"отображается в читаемом формате (например, "01.03.2026").</s:t>
+  </s:si>
+  <s:si>
+    <s:t>"Creation date" отображается в читаемом формате (например, "01.03.2026").</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): </s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг):  "Creation date" отображается некорректно</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Новости сортируются, порядок меняется при повторном нажатии</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): отображаются все новости при неактивном чекбоксе статуса</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Появляется неинформативное сообщение об ошибке "Saving failed. Try again later."</s:t>
+  </s:si>
+  <s:si>
+    <s:t>БАГ: Неинформативное сообщение. Рекомендуется заменить на "Select a category from the list"</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Фактически тест проходит, но сообщение неинформативное. Рекомендуется улучшить UX</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. В поле "Title" ввести только спецсимволы "!@#$%^&amp;*".
+2. Заполнить остальные обязательные поля.
+3. Нажать "SAVE".</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Появляется понятное сообщение об ошибке, например: "The title must contain letters or numbers."</s:t>
+  </s:si>
+  <s:si>
+    <s:t>БАГ: Заголовок из спецсимволов не должен сохраняться</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация всех обязательных полей при создании новости</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Параметризованный тест: поочередно оставлять пустым каждое обязательное поле (Title, Category, Publication date, Time, Description), заполняя остальные валидными данными, нажимать SAVE</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Для каждого пустого поля появляется подсветка. Сохранение не происходит.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Объединяет проверки пустых обязательных полей</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация максимальной длины поля Title</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. В поле Title ввести текст длиной 500 символов
+2. Заполнить остальные обязательные поля валидными данными
+3. Нажать SAVE</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Появляется сообщение об ошибке или обрезка до допустимой длины</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация минимальной длины поля Title</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. В поле Title ввести 1 символ
+2. Заполнить остальные обязательные поля валидными данными
+3. Нажать SAVE</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Новость сохраняется (или появляется сообщение о минимальной длине)</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация выбора даты публикации - граничные значения</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Нажать на поле Publication date
+2. В календаре выбрать дату: сегодня
+3. В календаре выбрать дату: сегодня + 1 год
+4. В календаре выбрать дату: сегодня + 1 день</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Все даты выбираются, прошедшие даты недоступны</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Н/Д</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Требуется уточнение требований по максимальной длине</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Требуется уточнение требований по минимальной длине</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Требуется уточнение логики состояния чекбокса при создании новости</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Неинформативное сообщение. Рекомендуется заменить на "Select a category from the list"</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): заголовок из спецсимволов не должен сохраняться</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Принимает текст длиной 500 символов как валидный заголовок</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): заголовок длиной 500 символов не должен сохраняться</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Новость сохраняется</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Полное редактирование новости</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Перейти к редактированию существующей новости
+2. Проверить предзаполнение всех полей
+3. Изменить Category, Title, статус Active, Description
+4. Нажать SAVE</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Все изменения сохраняются, новость в списке Control Panel обновляется</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Объединяет сценарии редактирования</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Открывается экран редактирования новости.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг). Тесты на адаптивность проверяются вручную, автоматизация нецелесообразна</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект (баг): прокрутка при повороте экрана не работает. Тесты на адаптивность проверяются вручную, автоматизация нецелесообразна</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация пробелов в начале/конце логина (известный баг)</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. В поле Login ввести " логин " (с пробелами в начале и конце).
+2. В поле Password ввести валидный пароль.
+3. Нажать кнопку SIGN IN.</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Тест выявил дефект: пробелы в начале/конце логина должны приводить к ошибке авторизации</s:t>
+  </s:si>
+  <s:si>
+    <s:t>Валидация пробелов в начале/конце логина</s:t>
+  </s:si>
+  <s:si>
+    <s:t>1. Ошибка валидации
+2. Ошибка валидации
+3. Ошибка валидации
+4. Ошибка валидации
+5. Ошибка валидации</s:t>
+  </s:si>
 </s:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<s:styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:vyd="http://volga.yandex.com/schemas/document/model" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<s:styleSheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:vyd="http://volga.yandex.com/schemas/document/model">
   <s:numFmts count="0"/>
-  <s:fonts count="12">
+  <s:fonts count="23">
     <s:font>
       <s:name val="Arial"/>
       <s:family val="2"/>
@@ -2389,6 +2671,56 @@
     <s:font>
       <s:name val="JetBrains Mono"/>
       <s:color rgb="FF000000"/>
+    </s:font>
+    <s:font>
+      <s:name val="quote-cjk-patch"/>
+      <s:color rgb="FF0F1115"/>
+      <s:sz val="11"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:b val="1"/>
+      <s:color rgb="FF0F1115"/>
+      <s:sz val="12"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:b val="1"/>
+      <s:sz val="12"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:b val="1"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:color rgb="FF0F1115"/>
+      <s:sz val="11"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:color rgb="FF000000"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:sz val="11"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:sz val="10"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:color rgb="FF0F1115"/>
+      <s:sz val="12"/>
+    </s:font>
+    <s:font>
+      <s:name val="Arial"/>
+      <s:color rgb="FF0F1115"/>
+      <s:sz val="10"/>
     </s:font>
   </s:fonts>
   <s:fills count="5">
@@ -2460,7 +2792,7 @@
   <s:cellStyleXfs count="1">
     <s:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </s:cellStyleXfs>
-  <s:cellXfs count="48">
+  <s:cellXfs count="75">
     <s:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <s:xf fontId="1" fillId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <s:alignment horizontal="left" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
@@ -2592,6 +2924,83 @@
     </s:xf>
     <s:xf fontId="11" fillId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf borderId="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf applyAlignment="1">
+      <s:alignment horizontal="center" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="12" fillId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <s:alignment horizontal="left" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="12" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="12" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="12" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" applyFont="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" applyFont="1"/>
+    <s:xf fontId="14" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="center" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="15" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="center" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="16" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="center" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="16" applyFont="1" applyAlignment="1">
+      <s:alignment horizontal="center" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="16" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="17" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="18" fillId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" borderId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" borderId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="13" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="19" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="20" borderId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <s:alignment vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="21" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="22" fillId="2" borderId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf borderId="3" applyBorder="1"/>
+    <s:xf fontId="12" fillId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="0" vyd:clipText="0" mc:Ignorable="vyd"/>
+    </s:xf>
+    <s:xf fontId="12" fillId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <s:alignment horizontal="left" vertical="center" wrapText="1" vyd:clipText="0" mc:Ignorable="vyd"/>
     </s:xf>
   </s:cellXfs>
   <s:cellStyles count="1">
@@ -2805,228 +3214,254 @@
   </s:sheetViews>
   <s:sheetFormatPr baseColWidth="13" defaultColWidth="13.4" defaultRowHeight="14.25" customHeight="1"/>
   <s:cols>
-    <s:col min="1" max="1" width="20.094" style="22" customWidth="1"/>
-    <s:col min="2" max="2" width="20.23" style="22" customWidth="1"/>
-    <s:col min="3" max="3" width="22.793" style="22" customWidth="1"/>
-    <s:col min="4" max="4" width="37.762" style="22" customWidth="1"/>
-    <s:col min="5" max="5" width="29.004" style="22" customWidth="1"/>
-    <s:col min="6" max="6" width="29.133" style="22" customWidth="1"/>
-    <s:col min="7" max="7" width="9.031" style="22" customWidth="1"/>
-    <s:col min="8" max="8" width="13.621" style="22" customWidth="1"/>
-    <s:col min="9" max="9" width="19.152" style="22" customWidth="1"/>
-    <s:col min="10" max="10" width="14.164" style="22" customWidth="1"/>
-    <s:col min="11" max="11" width="12.543" style="22" customWidth="1"/>
-    <s:col min="12" max="12" width="21.441" style="22" customWidth="1"/>
+    <s:col min="1" max="1" width="20.094" style="54" customWidth="1"/>
+    <s:col min="2" max="2" width="20.23" style="54" customWidth="1"/>
+    <s:col min="3" max="3" width="22.793" style="54" customWidth="1"/>
+    <s:col min="4" max="4" width="37.762" style="54" customWidth="1"/>
+    <s:col min="5" max="5" width="29.004" style="54" customWidth="1"/>
+    <s:col min="6" max="6" width="29.133" style="54" customWidth="1"/>
+    <s:col min="7" max="7" width="9.031" style="54" customWidth="1"/>
+    <s:col min="8" max="8" width="13.621" style="54" customWidth="1"/>
+    <s:col min="9" max="9" width="19.152" style="54" customWidth="1"/>
+    <s:col min="10" max="10" width="14.164" style="54" customWidth="1"/>
+    <s:col min="11" max="11" width="12.543" style="54" customWidth="1"/>
+    <s:col min="12" max="12" width="21.441" style="54" customWidth="1"/>
+    <s:col min="13" max="13" width="13.352" style="55"/>
+    <s:col min="14" max="14" width="13.352" style="55"/>
+    <s:col min="15" max="15" width="13.352" style="55"/>
+    <s:col min="16" max="16" width="13.352" style="55"/>
+    <s:col min="17" max="17" width="13.352" style="55"/>
+    <s:col min="18" max="18" width="13.352" style="55"/>
+    <s:col min="19" max="19" width="13.352" style="55"/>
+    <s:col min="20" max="20" width="13.352" style="55"/>
+    <s:col min="21" max="21" width="13.352" style="55"/>
+    <s:col min="22" max="22" width="13.352" style="55"/>
+    <s:col min="23" max="23" width="13.352" style="55"/>
+    <s:col min="24" max="24" width="13.352" style="55"/>
+    <s:col min="25" max="25" width="13.352" style="55"/>
+    <s:col min="26" max="26" width="13.352" style="55"/>
   </s:cols>
   <s:sheetData>
     <s:row r="1" ht="27" customHeight="1">
-      <s:c r="A1" s="28" t="s">
+      <s:c r="A1" s="56" t="s">
         <s:v>407</s:v>
       </s:c>
-      <s:c r="B1" s="29"/>
-      <s:c r="C1" s="29"/>
-      <s:c r="D1" s="29"/>
-      <s:c r="E1" s="29"/>
-      <s:c r="F1" s="29"/>
-      <s:c r="G1" s="29"/>
-      <s:c r="H1" s="29"/>
-      <s:c r="I1" s="29"/>
-      <s:c r="J1" s="29"/>
-      <s:c r="K1" s="29"/>
-      <s:c r="L1" s="29"/>
+      <s:c r="B1" s="57"/>
+      <s:c r="C1" s="57"/>
+      <s:c r="D1" s="57"/>
+      <s:c r="E1" s="57"/>
+      <s:c r="F1" s="57"/>
+      <s:c r="G1" s="57"/>
+      <s:c r="H1" s="57"/>
+      <s:c r="I1" s="57"/>
+      <s:c r="J1" s="57"/>
+      <s:c r="K1" s="57"/>
+      <s:c r="L1" s="57"/>
     </s:row>
     <s:row r="2" s="10" customFormat="1" ht="24.75">
-      <s:c r="A2" s="36" t="s">
+      <s:c r="A2" s="58" t="s">
         <s:v>24</s:v>
       </s:c>
-      <s:c r="B2" s="36" t="s">
+      <s:c r="B2" s="58" t="s">
         <s:v>25</s:v>
       </s:c>
-      <s:c r="C2" s="36" t="s">
+      <s:c r="C2" s="58" t="s">
         <s:v>26</s:v>
       </s:c>
-      <s:c r="D2" s="36" t="s">
+      <s:c r="D2" s="58" t="s">
         <s:v>27</s:v>
       </s:c>
-      <s:c r="E2" s="36" t="s">
+      <s:c r="E2" s="58" t="s">
         <s:v>28</s:v>
       </s:c>
-      <s:c r="F2" s="36" t="s">
+      <s:c r="F2" s="58" t="s">
         <s:v>29</s:v>
       </s:c>
-      <s:c r="G2" s="36" t="s">
+      <s:c r="G2" s="58" t="s">
         <s:v>30</s:v>
       </s:c>
-      <s:c r="H2" s="36" t="s">
+      <s:c r="H2" s="58" t="s">
         <s:v>31</s:v>
       </s:c>
-      <s:c r="I2" s="36" t="s">
+      <s:c r="I2" s="58" t="s">
         <s:v>32</s:v>
       </s:c>
-      <s:c r="J2" s="36" t="s">
+      <s:c r="J2" s="58" t="s">
         <s:v>33</s:v>
       </s:c>
-      <s:c r="K2" s="36" t="s">
+      <s:c r="K2" s="58" t="s">
         <s:v>34</s:v>
       </s:c>
-      <s:c r="L2" s="36" t="s">
+      <s:c r="L2" s="58" t="s">
         <s:v>35</s:v>
       </s:c>
+      <s:c r="M2" s="59"/>
+      <s:c r="N2" s="59"/>
+      <s:c r="O2" s="59"/>
+      <s:c r="P2" s="59"/>
+      <s:c r="Q2" s="59"/>
+      <s:c r="R2" s="59"/>
+      <s:c r="S2" s="59"/>
+      <s:c r="T2" s="59"/>
+      <s:c r="U2" s="59"/>
+      <s:c r="V2" s="59"/>
+      <s:c r="W2" s="59"/>
+      <s:c r="X2" s="59"/>
+      <s:c r="Y2" s="59"/>
+      <s:c r="Z2" s="59"/>
     </s:row>
     <s:row r="3">
-      <s:c r="A3" s="36" t="s">
+      <s:c r="A3" s="58" t="s">
         <s:v>36</s:v>
       </s:c>
-      <s:c r="B3" s="37"/>
-      <s:c r="C3" s="37"/>
-      <s:c r="D3" s="37"/>
-      <s:c r="E3" s="37"/>
-      <s:c r="F3" s="37"/>
-      <s:c r="G3" s="37"/>
-      <s:c r="H3" s="37"/>
-      <s:c r="I3" s="37"/>
-      <s:c r="J3" s="37"/>
-      <s:c r="K3" s="37"/>
-      <s:c r="L3" s="37"/>
-    </s:row>
-    <s:row r="4" ht="57">
-      <s:c r="A4" s="35" t="s">
+      <s:c r="B3" s="60"/>
+      <s:c r="C3" s="60"/>
+      <s:c r="D3" s="60"/>
+      <s:c r="E3" s="60"/>
+      <s:c r="F3" s="60"/>
+      <s:c r="G3" s="60"/>
+      <s:c r="H3" s="60"/>
+      <s:c r="I3" s="60"/>
+      <s:c r="J3" s="60"/>
+      <s:c r="K3" s="60"/>
+      <s:c r="L3" s="60"/>
+    </s:row>
+    <s:row r="4">
+      <s:c r="A4" s="61" t="s">
         <s:v>37</s:v>
       </s:c>
-      <s:c r="B4" s="35" t="s">
+      <s:c r="B4" s="61" t="s">
         <s:v>38</s:v>
       </s:c>
-      <s:c r="C4" s="35" t="s">
+      <s:c r="C4" s="61" t="s">
         <s:v>39</s:v>
       </s:c>
-      <s:c r="D4" s="35" t="s">
+      <s:c r="D4" s="61" t="s">
         <s:v>40</s:v>
       </s:c>
-      <s:c r="E4" s="35" t="s">
+      <s:c r="E4" s="61" t="s">
         <s:v>480</s:v>
       </s:c>
-      <s:c r="F4" t="s">
+      <s:c r="F4" s="61" t="s">
         <s:v>483</s:v>
       </s:c>
-      <s:c r="G4" s="35" t="s">
+      <s:c r="G4" s="61" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H4" s="35" t="s">
+      <s:c r="H4" s="61" t="s">
         <s:v>43</s:v>
       </s:c>
-      <s:c r="I4" s="35" t="s">
+      <s:c r="I4" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J4" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K4" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L4" s="35" t="s">
+      <s:c r="J4" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K4" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L4" s="61" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="5" ht="57">
-      <s:c r="A5" s="35" t="s">
+    <s:row r="5">
+      <s:c r="A5" s="61" t="s">
         <s:v>47</s:v>
       </s:c>
-      <s:c r="B5" s="35" t="s">
-        <s:v>48</s:v>
-      </s:c>
-      <s:c r="C5" s="35" t="s">
+      <s:c r="B5" s="61" t="s">
+        <s:v>661</s:v>
+      </s:c>
+      <s:c r="C5" s="61" t="s">
         <s:v>39</s:v>
       </s:c>
-      <s:c r="D5" s="35" t="s">
-        <s:v>49</s:v>
-      </s:c>
-      <s:c r="E5" s="35" t="s">
-        <s:v>481</s:v>
-      </s:c>
-      <s:c r="F5" s="35" t="s">
-        <s:v>419</s:v>
-      </s:c>
-      <s:c r="G5" s="35" t="s">
+      <s:c r="D5" s="61" t="s">
+        <s:v>662</s:v>
+      </s:c>
+      <s:c r="E5" s="61" t="s">
+        <s:v>663</s:v>
+      </s:c>
+      <s:c r="F5" s="61" t="s">
+        <s:v>664</s:v>
+      </s:c>
+      <s:c r="G5" s="61" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H5" s="35" t="s">
+      <s:c r="H5" s="61" t="s">
         <s:v>43</s:v>
       </s:c>
-      <s:c r="I5" s="35" t="s">
+      <s:c r="I5" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J5" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K5" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L5" s="35" t="s">
+      <s:c r="J5" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K5" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L5" s="61" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="6" ht="57">
-      <s:c r="A6" s="35" t="s">
+    <s:row r="6" ht="108">
+      <s:c r="A6" s="61" t="s">
         <s:v>51</s:v>
       </s:c>
-      <s:c r="B6" s="35" t="s">
-        <s:v>52</s:v>
-      </s:c>
-      <s:c r="C6" s="35" t="s">
+      <s:c r="B6" s="61" t="s">
+        <s:v>656</s:v>
+      </s:c>
+      <s:c r="C6" s="61" t="s">
         <s:v>39</s:v>
       </s:c>
-      <s:c r="D6" s="35" t="s">
-        <s:v>53</s:v>
-      </s:c>
-      <s:c r="E6" s="35" t="s">
-        <s:v>481</s:v>
-      </s:c>
-      <s:c r="F6" s="35" t="s">
-        <s:v>419</s:v>
-      </s:c>
-      <s:c r="G6" s="35" t="s">
+      <s:c r="D6" s="61" t="s">
+        <s:v>657</s:v>
+      </s:c>
+      <s:c r="E6" s="61" t="s">
+        <s:v>658</s:v>
+      </s:c>
+      <s:c r="F6" s="61" t="s">
+        <s:v>732</s:v>
+      </s:c>
+      <s:c r="G6" s="61" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H6" s="35" t="s">
+      <s:c r="H6" s="61" t="s">
         <s:v>43</s:v>
       </s:c>
-      <s:c r="I6" s="35" t="s">
+      <s:c r="I6" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J6" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K6" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L6" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="7" ht="46.5">
+      <s:c r="J6" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K6" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L6" s="61"/>
+    </s:row>
+    <s:row r="7" ht="60.75">
       <s:c r="A7" s="35" t="s">
         <s:v>54</s:v>
       </s:c>
       <s:c r="B7" s="35" t="s">
-        <s:v>55</s:v>
+        <s:v>731</s:v>
       </s:c>
       <s:c r="C7" s="35" t="s">
         <s:v>39</s:v>
       </s:c>
       <s:c r="D7" s="35" t="s">
-        <s:v>56</s:v>
+        <s:v>729</s:v>
       </s:c>
       <s:c r="E7" s="35" t="s">
-        <s:v>482</s:v>
+        <s:v>658</s:v>
       </s:c>
       <s:c r="F7" s="35" t="s">
-        <s:v>427</s:v>
+        <s:v>483</s:v>
       </s:c>
       <s:c r="G7" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>415</s:v>
       </s:c>
       <s:c r="H7" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I7" s="35" t="s">
         <s:v>44</s:v>
@@ -3038,353 +3473,331 @@
         <s:v>45</s:v>
       </s:c>
       <s:c r="L7" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="8" ht="35.25">
+        <s:v>730</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="8" ht="37.5">
       <s:c r="A8" s="35" t="s">
         <s:v>61</s:v>
       </s:c>
       <s:c r="B8" s="35" t="s">
-        <s:v>62</s:v>
+        <s:v>430</s:v>
       </s:c>
       <s:c r="C8" s="35" t="s">
         <s:v>39</s:v>
       </s:c>
       <s:c r="D8" s="35" t="s">
-        <s:v>63</s:v>
+        <s:v>431</s:v>
       </s:c>
       <s:c r="E8" s="35" t="s">
-        <s:v>482</s:v>
+        <s:v>432</s:v>
       </s:c>
       <s:c r="F8" s="35" t="s">
-        <s:v>427</s:v>
+        <s:v>433</s:v>
       </s:c>
       <s:c r="G8" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H8" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I8" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J8" s="39" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K8" s="39" t="s">
-        <s:v>45</s:v>
+        <s:v>434</s:v>
+      </s:c>
+      <s:c r="J8" s="35" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K8" s="35" t="s">
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L8" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="9" ht="57">
+        <s:v>508</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="9" ht="72.75">
       <s:c r="A9" s="35" t="s">
         <s:v>65</s:v>
       </s:c>
       <s:c r="B9" s="35" t="s">
-        <s:v>408</s:v>
+        <s:v>437</s:v>
       </s:c>
       <s:c r="C9" s="35" t="s">
         <s:v>39</s:v>
       </s:c>
       <s:c r="D9" s="35" t="s">
-        <s:v>67</s:v>
+        <s:v>438</s:v>
       </s:c>
       <s:c r="E9" s="35" t="s">
-        <s:v>481</s:v>
+        <s:v>439</s:v>
       </s:c>
       <s:c r="F9" s="35" t="s">
-        <s:v>419</s:v>
+        <s:v>440</s:v>
       </s:c>
       <s:c r="G9" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>415</s:v>
       </s:c>
       <s:c r="H9" s="35" t="s">
         <s:v>58</s:v>
       </s:c>
       <s:c r="I9" s="35" t="s">
+        <s:v>377</s:v>
+      </s:c>
+      <s:c r="J9" s="35" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K9" s="35" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L9" s="35" t="s">
+        <s:v>660</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="10">
+      <s:c r="A10" s="58" t="s">
+        <s:v>90</s:v>
+      </s:c>
+      <s:c r="B10" s="60"/>
+      <s:c r="C10" s="60"/>
+      <s:c r="D10" s="60"/>
+      <s:c r="E10" s="60"/>
+      <s:c r="F10" s="60"/>
+      <s:c r="G10" s="60"/>
+      <s:c r="H10" s="60"/>
+      <s:c r="I10" s="60"/>
+      <s:c r="J10" s="60"/>
+      <s:c r="K10" s="60"/>
+      <s:c r="L10" s="60"/>
+    </s:row>
+    <s:row r="11">
+      <s:c r="A11" s="61" t="s">
+        <s:v>91</s:v>
+      </s:c>
+      <s:c r="B11" s="61" t="s">
+        <s:v>92</s:v>
+      </s:c>
+      <s:c r="C11" s="61" t="s">
+        <s:v>495</s:v>
+      </s:c>
+      <s:c r="D11" s="61" t="s">
+        <s:v>644</s:v>
+      </s:c>
+      <s:c r="E11" s="61" t="s">
+        <s:v>493</s:v>
+      </s:c>
+      <s:c r="F11" s="61" t="s">
+        <s:v>518</s:v>
+      </s:c>
+      <s:c r="G11" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H11" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I11" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J9" s="39" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K9" s="39" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L9" s="35" t="s">
+      <s:c r="J11" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K11" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L11" s="61" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="10" ht="57">
-      <s:c r="A10" s="35" t="s">
-        <s:v>71</s:v>
-      </s:c>
-      <s:c r="B10" s="35" t="s">
-        <s:v>412</s:v>
-      </s:c>
-      <s:c r="C10" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D10" s="35" t="s">
-        <s:v>73</s:v>
-      </s:c>
-      <s:c r="E10" s="35" t="s">
-        <s:v>481</s:v>
-      </s:c>
-      <s:c r="F10" s="35" t="s">
-        <s:v>483</s:v>
-      </s:c>
-      <s:c r="G10" s="35" t="s">
+    <s:row r="12">
+      <s:c r="A12" s="61" t="s">
+        <s:v>98</s:v>
+      </s:c>
+      <s:c r="B12" s="61" t="s">
+        <s:v>496</s:v>
+      </s:c>
+      <s:c r="C12" s="61" t="s">
+        <s:v>497</s:v>
+      </s:c>
+      <s:c r="D12" s="61" t="s">
+        <s:v>498</s:v>
+      </s:c>
+      <s:c r="E12" s="61" t="s">
+        <s:v>499</s:v>
+      </s:c>
+      <s:c r="F12" s="61" t="s">
+        <s:v>502</s:v>
+      </s:c>
+      <s:c r="G12" s="61" t="s">
         <s:v>415</s:v>
       </s:c>
-      <s:c r="H10" s="35" t="s">
+      <s:c r="H12" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I12" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J12" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K12" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L12" s="61" t="s">
+        <s:v>681</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="13">
+      <s:c r="A13" s="61" t="s">
+        <s:v>106</s:v>
+      </s:c>
+      <s:c r="B13" s="61" t="s">
+        <s:v>107</s:v>
+      </s:c>
+      <s:c r="C13" s="61" t="s">
+        <s:v>93</s:v>
+      </s:c>
+      <s:c r="D13" s="61" t="s">
+        <s:v>108</s:v>
+      </s:c>
+      <s:c r="E13" s="61" t="s">
+        <s:v>509</s:v>
+      </s:c>
+      <s:c r="F13" s="61" t="s">
+        <s:v>506</s:v>
+      </s:c>
+      <s:c r="G13" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H13" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I13" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J13" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K13" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L13" s="61" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="14">
+      <s:c r="A14" s="61" t="s">
+        <s:v>110</s:v>
+      </s:c>
+      <s:c r="B14" s="61" t="s">
+        <s:v>516</s:v>
+      </s:c>
+      <s:c r="C14" s="61" t="s">
+        <s:v>513</s:v>
+      </s:c>
+      <s:c r="D14" s="61" t="s">
+        <s:v>528</s:v>
+      </s:c>
+      <s:c r="E14" s="61" t="s">
+        <s:v>529</s:v>
+      </s:c>
+      <s:c r="F14" s="54" t="s">
+        <s:v>531</s:v>
+      </s:c>
+      <s:c r="G14" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H14" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I14" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J14" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K14" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L14" s="61" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="15">
+      <s:c r="A15" s="58" t="s">
+        <s:v>129</s:v>
+      </s:c>
+      <s:c r="B15" s="60"/>
+      <s:c r="C15" s="60"/>
+      <s:c r="D15" s="60"/>
+      <s:c r="E15" s="60"/>
+      <s:c r="F15" s="60"/>
+      <s:c r="G15" s="60"/>
+      <s:c r="H15" s="60"/>
+      <s:c r="I15" s="60"/>
+      <s:c r="J15" s="60"/>
+      <s:c r="K15" s="60"/>
+      <s:c r="L15" s="60"/>
+    </s:row>
+    <s:row r="16" ht="49.5">
+      <s:c r="A16" s="35" t="s">
+        <s:v>130</s:v>
+      </s:c>
+      <s:c r="B16" s="35" t="s">
+        <s:v>131</s:v>
+      </s:c>
+      <s:c r="C16" s="35" t="s">
+        <s:v>523</s:v>
+      </s:c>
+      <s:c r="D16" s="35" t="s">
+        <s:v>132</s:v>
+      </s:c>
+      <s:c r="E16" s="35" t="s">
+        <s:v>674</s:v>
+      </s:c>
+      <s:c r="F16" s="35" t="s">
+        <s:v>133</s:v>
+      </s:c>
+      <s:c r="G16" s="35" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H16" s="35" t="s">
         <s:v>58</s:v>
       </s:c>
-      <s:c r="I10" s="35" t="s">
+      <s:c r="I16" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J10" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K10" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L10" s="35" t="s">
-        <s:v>511</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="11" ht="46.5">
-      <s:c r="A11" s="35" t="s">
-        <s:v>76</s:v>
-      </s:c>
-      <s:c r="B11" s="35" t="s">
-        <s:v>417</s:v>
-      </s:c>
-      <s:c r="C11" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D11" s="35" t="s">
-        <s:v>78</s:v>
-      </s:c>
-      <s:c r="E11" s="35" t="s">
-        <s:v>481</s:v>
-      </s:c>
-      <s:c r="F11" s="35" t="s">
-        <s:v>419</s:v>
-      </s:c>
-      <s:c r="G11" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H11" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I11" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J11" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K11" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L11" s="35" t="s">
+      <s:c r="J16" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K16" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L16" s="35" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="12" ht="57">
-      <s:c r="A12" s="35" t="s">
-        <s:v>80</s:v>
-      </s:c>
-      <s:c r="B12" s="35" t="s">
-        <s:v>421</s:v>
-      </s:c>
-      <s:c r="C12" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D12" s="35" t="s">
-        <s:v>485</s:v>
-      </s:c>
-      <s:c r="E12" s="35" t="s">
-        <s:v>481</s:v>
-      </s:c>
-      <s:c r="F12" s="35" t="s">
-        <s:v>419</s:v>
-      </s:c>
-      <s:c r="G12" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H12" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I12" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J12" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K12" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L12" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="13" ht="46.5">
-      <s:c r="A13" s="35" t="s">
-        <s:v>86</s:v>
-      </s:c>
-      <s:c r="B13" s="35" t="s">
-        <s:v>425</s:v>
-      </s:c>
-      <s:c r="C13" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D13" s="35" t="s">
-        <s:v>426</s:v>
-      </s:c>
-      <s:c r="E13" s="35" t="s">
-        <s:v>482</s:v>
-      </s:c>
-      <s:c r="F13" s="35" t="s">
-        <s:v>427</s:v>
-      </s:c>
-      <s:c r="G13" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H13" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I13" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J13" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K13" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L13" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="14" ht="35.25">
-      <s:c r="A14" s="35" t="s">
-        <s:v>429</s:v>
-      </s:c>
-      <s:c r="B14" s="35" t="s">
-        <s:v>430</s:v>
-      </s:c>
-      <s:c r="C14" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D14" s="35" t="s">
-        <s:v>431</s:v>
-      </s:c>
-      <s:c r="E14" s="35" t="s">
-        <s:v>432</s:v>
-      </s:c>
-      <s:c r="F14" s="35" t="s">
-        <s:v>433</s:v>
-      </s:c>
-      <s:c r="G14" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H14" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I14" s="35" t="s">
-        <s:v>434</s:v>
-      </s:c>
-      <s:c r="J14" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K14" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L14" s="35" t="s">
-        <s:v>508</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="15" ht="35.25">
-      <s:c r="A15" s="35" t="s">
-        <s:v>436</s:v>
-      </s:c>
-      <s:c r="B15" s="35" t="s">
-        <s:v>437</s:v>
-      </s:c>
-      <s:c r="C15" s="35" t="s">
-        <s:v>39</s:v>
-      </s:c>
-      <s:c r="D15" s="35" t="s">
-        <s:v>438</s:v>
-      </s:c>
-      <s:c r="E15" s="35" t="s">
-        <s:v>439</s:v>
-      </s:c>
-      <s:c r="F15" s="35" t="s">
-        <s:v>440</s:v>
-      </s:c>
-      <s:c r="G15" s="35" t="s">
-        <s:v>415</s:v>
-      </s:c>
-      <s:c r="H15" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I15" s="35" t="s">
-        <s:v>377</s:v>
-      </s:c>
-      <s:c r="J15" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K15" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L15" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="16">
-      <s:c r="A16" s="36" t="s">
-        <s:v>90</s:v>
-      </s:c>
-      <s:c r="B16" s="37"/>
-      <s:c r="C16" s="37"/>
-      <s:c r="D16" s="37"/>
-      <s:c r="E16" s="37"/>
-      <s:c r="F16" s="37"/>
-      <s:c r="G16" s="37"/>
-      <s:c r="H16" s="37"/>
-      <s:c r="I16" s="37"/>
-      <s:c r="J16" s="37"/>
-      <s:c r="K16" s="37"/>
-      <s:c r="L16" s="37"/>
-    </s:row>
-    <s:row r="17" ht="92.25">
+    <s:row r="17" ht="60.75">
       <s:c r="A17" s="35" t="s">
-        <s:v>91</s:v>
+        <s:v>135</s:v>
       </s:c>
       <s:c r="B17" s="35" t="s">
-        <s:v>92</s:v>
+        <s:v>524</s:v>
       </s:c>
       <s:c r="C17" s="35" t="s">
-        <s:v>495</s:v>
+        <s:v>93</s:v>
       </s:c>
       <s:c r="D17" s="35" t="s">
-        <s:v>644</s:v>
+        <s:v>525</s:v>
       </s:c>
       <s:c r="E17" s="35" t="s">
-        <s:v>493</s:v>
+        <s:v>526</s:v>
       </s:c>
       <s:c r="F17" s="35" t="s">
-        <s:v>518</s:v>
+        <s:v>526</s:v>
       </s:c>
       <s:c r="G17" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H17" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I17" s="35" t="s">
         <s:v>44</s:v>
@@ -3399,100 +3812,78 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="18" ht="111.75">
-      <s:c r="A18" s="35" t="s">
-        <s:v>98</s:v>
-      </s:c>
-      <s:c r="B18" s="35" t="s">
-        <s:v>496</s:v>
-      </s:c>
-      <s:c r="C18" s="35" t="s">
-        <s:v>497</s:v>
-      </s:c>
-      <s:c r="D18" s="35" t="s">
-        <s:v>498</s:v>
-      </s:c>
-      <s:c r="E18" s="35" t="s">
-        <s:v>499</s:v>
-      </s:c>
-      <s:c r="F18" s="35" t="s">
-        <s:v>502</s:v>
-      </s:c>
-      <s:c r="G18" s="35" t="s">
-        <s:v>415</s:v>
-      </s:c>
-      <s:c r="H18" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I18" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J18" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K18" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L18" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="19" ht="57">
+    <s:row r="18">
+      <s:c r="A18" s="58" t="s">
+        <s:v>140</s:v>
+      </s:c>
+      <s:c r="B18" s="60"/>
+      <s:c r="C18" s="60"/>
+      <s:c r="D18" s="60"/>
+      <s:c r="E18" s="60"/>
+      <s:c r="F18" s="60"/>
+      <s:c r="G18" s="60"/>
+      <s:c r="H18" s="60"/>
+      <s:c r="I18" s="60"/>
+      <s:c r="J18" s="60"/>
+      <s:c r="K18" s="60"/>
+      <s:c r="L18" s="60"/>
+    </s:row>
+    <s:row r="19" ht="49.5">
       <s:c r="A19" s="35" t="s">
-        <s:v>106</s:v>
+        <s:v>141</s:v>
       </s:c>
       <s:c r="B19" s="35" t="s">
-        <s:v>107</s:v>
+        <s:v>142</s:v>
       </s:c>
       <s:c r="C19" s="35" t="s">
-        <s:v>93</s:v>
+        <s:v>143</s:v>
       </s:c>
       <s:c r="D19" s="35" t="s">
-        <s:v>108</s:v>
+        <s:v>144</s:v>
       </s:c>
       <s:c r="E19" s="35" t="s">
-        <s:v>509</s:v>
+        <s:v>145</s:v>
       </s:c>
       <s:c r="F19" s="35" t="s">
-        <s:v>506</s:v>
+        <s:v>145</s:v>
       </s:c>
       <s:c r="G19" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H19" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I19" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J19" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="K19" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L19" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="20" ht="133.5">
+        <s:v>676</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="20" ht="72.75">
       <s:c r="A20" s="35" t="s">
-        <s:v>110</s:v>
+        <s:v>147</s:v>
       </s:c>
       <s:c r="B20" s="35" t="s">
-        <s:v>516</s:v>
+        <s:v>534</s:v>
       </s:c>
       <s:c r="C20" s="35" t="s">
-        <s:v>513</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D20" s="35" t="s">
-        <s:v>528</s:v>
+        <s:v>536</s:v>
       </s:c>
       <s:c r="E20" s="35" t="s">
-        <s:v>529</s:v>
-      </s:c>
-      <s:c r="F20" s="22" t="s">
-        <s:v>531</s:v>
+        <s:v>684</s:v>
+      </s:c>
+      <s:c r="F20" s="35" t="s">
+        <s:v>684</s:v>
       </s:c>
       <s:c r="G20" s="35" t="s">
         <s:v>42</s:v>
@@ -3513,84 +3904,106 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="21">
-      <s:c r="A21" s="36" t="s">
-        <s:v>129</s:v>
-      </s:c>
-      <s:c r="B21" s="37"/>
-      <s:c r="C21" s="37"/>
-      <s:c r="D21" s="37"/>
-      <s:c r="E21" s="37"/>
-      <s:c r="F21" s="37"/>
-      <s:c r="G21" s="37"/>
-      <s:c r="H21" s="37"/>
-      <s:c r="I21" s="37"/>
-      <s:c r="J21" s="37"/>
-      <s:c r="K21" s="37"/>
-      <s:c r="L21" s="37"/>
-    </s:row>
-    <s:row r="22" ht="46.5">
+    <s:row r="21" ht="37.5">
+      <s:c r="A21" s="35" t="s">
+        <s:v>153</s:v>
+      </s:c>
+      <s:c r="B21" s="35" t="s">
+        <s:v>154</s:v>
+      </s:c>
+      <s:c r="C21" s="35" t="s">
+        <s:v>149</s:v>
+      </s:c>
+      <s:c r="D21" s="35" t="s">
+        <s:v>155</s:v>
+      </s:c>
+      <s:c r="E21" s="35" t="s">
+        <s:v>156</s:v>
+      </s:c>
+      <s:c r="F21" s="35" t="s">
+        <s:v>157</s:v>
+      </s:c>
+      <s:c r="G21" s="35" t="s">
+        <s:v>158</s:v>
+      </s:c>
+      <s:c r="H21" s="35" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I21" s="35" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J21" s="35" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K21" s="35" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L21" s="35" t="s">
+        <s:v>159</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="22" ht="60.75">
       <s:c r="A22" s="35" t="s">
-        <s:v>130</s:v>
+        <s:v>160</s:v>
       </s:c>
       <s:c r="B22" s="35" t="s">
-        <s:v>131</s:v>
+        <s:v>161</s:v>
       </s:c>
       <s:c r="C22" s="35" t="s">
-        <s:v>523</s:v>
+        <s:v>162</s:v>
       </s:c>
       <s:c r="D22" s="35" t="s">
-        <s:v>132</s:v>
+        <s:v>539</s:v>
       </s:c>
       <s:c r="E22" s="35" t="s">
-        <s:v>133</s:v>
+        <s:v>164</s:v>
       </s:c>
       <s:c r="F22" s="35" t="s">
-        <s:v>133</s:v>
+        <s:v>540</s:v>
       </s:c>
       <s:c r="G22" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>158</s:v>
       </s:c>
       <s:c r="H22" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I22" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J22" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="K22" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L22" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="23" ht="57">
+        <s:v>159</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="23" ht="26.25">
       <s:c r="A23" s="35" t="s">
-        <s:v>135</s:v>
+        <s:v>167</s:v>
       </s:c>
       <s:c r="B23" s="35" t="s">
-        <s:v>524</s:v>
+        <s:v>168</s:v>
       </s:c>
       <s:c r="C23" s="35" t="s">
-        <s:v>93</s:v>
+        <s:v>169</s:v>
       </s:c>
       <s:c r="D23" s="35" t="s">
-        <s:v>525</s:v>
+        <s:v>170</s:v>
       </s:c>
       <s:c r="E23" s="35" t="s">
-        <s:v>526</s:v>
+        <s:v>171</s:v>
       </s:c>
       <s:c r="F23" s="35" t="s">
-        <s:v>526</s:v>
+        <s:v>171</s:v>
       </s:c>
       <s:c r="G23" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H23" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I23" s="35" t="s">
         <s:v>44</s:v>
@@ -3605,198 +4018,198 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="24">
-      <s:c r="A24" s="36" t="s">
-        <s:v>140</s:v>
-      </s:c>
-      <s:c r="B24" s="37"/>
-      <s:c r="C24" s="37"/>
-      <s:c r="D24" s="37"/>
-      <s:c r="E24" s="37"/>
-      <s:c r="F24" s="37"/>
-      <s:c r="G24" s="37"/>
-      <s:c r="H24" s="37"/>
-      <s:c r="I24" s="37"/>
-      <s:c r="J24" s="37"/>
-      <s:c r="K24" s="37"/>
-      <s:c r="L24" s="37"/>
-    </s:row>
-    <s:row r="25" ht="35.25">
+    <s:row r="24" ht="37.5">
+      <s:c r="A24" s="35" t="s">
+        <s:v>172</s:v>
+      </s:c>
+      <s:c r="B24" s="35" t="s">
+        <s:v>173</s:v>
+      </s:c>
+      <s:c r="C24" s="35" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D24" s="35" t="s">
+        <s:v>174</s:v>
+      </s:c>
+      <s:c r="E24" s="35" t="s">
+        <s:v>541</s:v>
+      </s:c>
+      <s:c r="F24" s="35" t="s">
+        <s:v>541</s:v>
+      </s:c>
+      <s:c r="G24" s="35" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H24" s="35" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I24" s="35" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J24" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K24" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L24" s="35" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="25" ht="60.75">
       <s:c r="A25" s="35" t="s">
-        <s:v>141</s:v>
+        <s:v>556</s:v>
       </s:c>
       <s:c r="B25" s="35" t="s">
-        <s:v>142</s:v>
+        <s:v>557</s:v>
       </s:c>
       <s:c r="C25" s="35" t="s">
-        <s:v>143</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D25" s="35" t="s">
-        <s:v>144</s:v>
+        <s:v>558</s:v>
       </s:c>
       <s:c r="E25" s="35" t="s">
-        <s:v>145</s:v>
+        <s:v>563</s:v>
       </s:c>
       <s:c r="F25" s="35" t="s">
-        <s:v>145</s:v>
+        <s:v>562</s:v>
       </s:c>
       <s:c r="G25" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>158</s:v>
       </s:c>
       <s:c r="H25" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I25" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J25" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="K25" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L25" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="26" ht="68.25">
-      <s:c r="A26" s="35" t="s">
-        <s:v>147</s:v>
-      </s:c>
-      <s:c r="B26" s="35" t="s">
-        <s:v>534</s:v>
-      </s:c>
-      <s:c r="C26" s="35" t="s">
-        <s:v>149</s:v>
-      </s:c>
-      <s:c r="D26" s="35" t="s">
-        <s:v>536</s:v>
-      </s:c>
-      <s:c r="E26" s="35" t="s">
-        <s:v>537</s:v>
-      </s:c>
-      <s:c r="F26" s="35" t="s">
-        <s:v>537</s:v>
-      </s:c>
-      <s:c r="G26" s="35" t="s">
+        <s:v>159</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="26">
+      <s:c r="A26" s="58" t="s">
+        <s:v>176</s:v>
+      </s:c>
+      <s:c r="B26" s="60"/>
+      <s:c r="C26" s="60"/>
+      <s:c r="D26" s="60"/>
+      <s:c r="E26" s="60"/>
+      <s:c r="F26" s="60"/>
+      <s:c r="G26" s="60"/>
+      <s:c r="H26" s="60"/>
+      <s:c r="I26" s="60"/>
+      <s:c r="J26" s="60"/>
+      <s:c r="K26" s="60"/>
+      <s:c r="L26" s="60"/>
+    </s:row>
+    <s:row r="27" ht="49.5">
+      <s:c r="A27" s="35" t="s">
+        <s:v>177</s:v>
+      </s:c>
+      <s:c r="B27" s="35" t="s">
+        <s:v>178</s:v>
+      </s:c>
+      <s:c r="C27" s="35" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D27" s="35" t="s">
+        <s:v>179</s:v>
+      </s:c>
+      <s:c r="E27" s="35" t="s">
+        <s:v>542</s:v>
+      </s:c>
+      <s:c r="F27" s="35" t="s">
+        <s:v>542</s:v>
+      </s:c>
+      <s:c r="G27" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H26" s="35" t="s">
+      <s:c r="H27" s="35" t="s">
         <s:v>43</s:v>
-      </s:c>
-      <s:c r="I26" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J26" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K26" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L26" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="27" ht="35.25">
-      <s:c r="A27" s="35" t="s">
-        <s:v>153</s:v>
-      </s:c>
-      <s:c r="B27" s="35" t="s">
-        <s:v>154</s:v>
-      </s:c>
-      <s:c r="C27" s="35" t="s">
-        <s:v>149</s:v>
-      </s:c>
-      <s:c r="D27" s="35" t="s">
-        <s:v>155</s:v>
-      </s:c>
-      <s:c r="E27" s="35" t="s">
-        <s:v>156</s:v>
-      </s:c>
-      <s:c r="F27" s="35" t="s">
-        <s:v>157</s:v>
-      </s:c>
-      <s:c r="G27" s="35" t="s">
-        <s:v>158</s:v>
-      </s:c>
-      <s:c r="H27" s="35" t="s">
-        <s:v>58</s:v>
       </s:c>
       <s:c r="I27" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J27" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K27" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L27" s="35" t="s">
-        <s:v>159</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="28" ht="57">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="28" ht="84">
       <s:c r="A28" s="35" t="s">
-        <s:v>160</s:v>
+        <s:v>181</s:v>
       </s:c>
       <s:c r="B28" s="35" t="s">
-        <s:v>161</s:v>
+        <s:v>182</s:v>
       </s:c>
       <s:c r="C28" s="35" t="s">
-        <s:v>162</s:v>
+        <s:v>169</s:v>
       </s:c>
       <s:c r="D28" s="35" t="s">
-        <s:v>539</s:v>
+        <s:v>183</s:v>
       </s:c>
       <s:c r="E28" s="35" t="s">
-        <s:v>164</s:v>
+        <s:v>543</s:v>
       </s:c>
       <s:c r="F28" s="35" t="s">
-        <s:v>540</s:v>
+        <s:v>543</s:v>
       </s:c>
       <s:c r="G28" s="35" t="s">
-        <s:v>158</s:v>
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H28" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I28" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J28" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K28" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L28" s="35" t="s">
-        <s:v>159</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="29" ht="24.75">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="29" ht="37.5">
       <s:c r="A29" s="35" t="s">
-        <s:v>167</s:v>
+        <s:v>186</s:v>
       </s:c>
       <s:c r="B29" s="35" t="s">
-        <s:v>168</s:v>
+        <s:v>187</s:v>
       </s:c>
       <s:c r="C29" s="35" t="s">
         <s:v>169</s:v>
       </s:c>
       <s:c r="D29" s="35" t="s">
-        <s:v>170</s:v>
+        <s:v>188</s:v>
       </s:c>
       <s:c r="E29" s="35" t="s">
-        <s:v>171</s:v>
+        <s:v>189</s:v>
       </s:c>
       <s:c r="F29" s="35" t="s">
-        <s:v>171</s:v>
+        <s:v>189</s:v>
       </s:c>
       <s:c r="G29" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H29" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I29" s="35" t="s">
         <s:v>44</s:v>
@@ -3811,27 +4224,27 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="30" ht="35.25">
+    <s:row r="30" ht="49.5">
       <s:c r="A30" s="35" t="s">
-        <s:v>172</s:v>
+        <s:v>191</s:v>
       </s:c>
       <s:c r="B30" s="35" t="s">
-        <s:v>173</s:v>
+        <s:v>192</s:v>
       </s:c>
       <s:c r="C30" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>193</s:v>
       </s:c>
       <s:c r="D30" s="35" t="s">
-        <s:v>174</s:v>
+        <s:v>546</s:v>
       </s:c>
       <s:c r="E30" s="35" t="s">
-        <s:v>541</s:v>
+        <s:v>195</s:v>
       </s:c>
       <s:c r="F30" s="35" t="s">
-        <s:v>541</s:v>
+        <s:v>157</s:v>
       </s:c>
       <s:c r="G30" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>158</s:v>
       </s:c>
       <s:c r="H30" s="35" t="s">
         <s:v>43</s:v>
@@ -3840,36 +4253,36 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J30" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="K30" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L30" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="31" ht="57">
+        <s:v>159</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="31" ht="26.25">
       <s:c r="A31" s="35" t="s">
-        <s:v>556</s:v>
+        <s:v>196</s:v>
       </s:c>
       <s:c r="B31" s="35" t="s">
-        <s:v>557</s:v>
+        <s:v>197</s:v>
       </s:c>
       <s:c r="C31" s="35" t="s">
-        <s:v>149</s:v>
+        <s:v>169</s:v>
       </s:c>
       <s:c r="D31" s="35" t="s">
-        <s:v>558</s:v>
+        <s:v>547</s:v>
       </s:c>
       <s:c r="E31" s="35" t="s">
-        <s:v>563</s:v>
+        <s:v>199</s:v>
       </s:c>
       <s:c r="F31" s="35" t="s">
-        <s:v>562</s:v>
+        <s:v>199</s:v>
       </s:c>
       <s:c r="G31" s="35" t="s">
-        <s:v>158</s:v>
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H31" s="35" t="s">
         <s:v>43</s:v>
@@ -3878,93 +4291,93 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J31" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K31" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L31" s="35" t="s">
-        <s:v>159</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="32">
-      <s:c r="A32" s="36" t="s">
-        <s:v>176</s:v>
-      </s:c>
-      <s:c r="B32" s="37"/>
-      <s:c r="C32" s="37"/>
-      <s:c r="D32" s="37"/>
-      <s:c r="E32" s="37"/>
-      <s:c r="F32" s="37"/>
-      <s:c r="G32" s="37"/>
-      <s:c r="H32" s="37"/>
-      <s:c r="I32" s="37"/>
-      <s:c r="J32" s="37"/>
-      <s:c r="K32" s="37"/>
-      <s:c r="L32" s="37"/>
-    </s:row>
-    <s:row r="33" ht="46.5">
-      <s:c r="A33" s="35" t="s">
-        <s:v>177</s:v>
-      </s:c>
-      <s:c r="B33" s="35" t="s">
-        <s:v>178</s:v>
-      </s:c>
-      <s:c r="C33" s="35" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="32" ht="60.75">
+      <s:c r="A32" s="35" t="s">
+        <s:v>201</s:v>
+      </s:c>
+      <s:c r="B32" s="35" t="s">
+        <s:v>202</s:v>
+      </s:c>
+      <s:c r="C32" s="35" t="s">
         <s:v>169</s:v>
       </s:c>
-      <s:c r="D33" s="35" t="s">
-        <s:v>179</s:v>
-      </s:c>
-      <s:c r="E33" s="35" t="s">
-        <s:v>542</s:v>
-      </s:c>
-      <s:c r="F33" s="35" t="s">
-        <s:v>542</s:v>
-      </s:c>
-      <s:c r="G33" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H33" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I33" s="35" t="s">
+      <s:c r="D32" s="35" t="s">
+        <s:v>685</s:v>
+      </s:c>
+      <s:c r="E32" s="35" t="s">
+        <s:v>549</s:v>
+      </s:c>
+      <s:c r="F32" s="35" t="s">
+        <s:v>205</s:v>
+      </s:c>
+      <s:c r="G32" s="35" t="s">
+        <s:v>415</s:v>
+      </s:c>
+      <s:c r="H32" s="35" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I32" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J33" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K33" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L33" s="35" t="s">
+      <s:c r="J32" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K32" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L32" s="35" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="34" ht="78.75">
+    <s:row r="33">
+      <s:c r="A33" s="58" t="s">
+        <s:v>222</s:v>
+      </s:c>
+      <s:c r="B33" s="60"/>
+      <s:c r="C33" s="60"/>
+      <s:c r="D33" s="60"/>
+      <s:c r="E33" s="60"/>
+      <s:c r="F33" s="60"/>
+      <s:c r="G33" s="60"/>
+      <s:c r="H33" s="60"/>
+      <s:c r="I33" s="60"/>
+      <s:c r="J33" s="60"/>
+      <s:c r="K33" s="60"/>
+      <s:c r="L33" s="60"/>
+    </s:row>
+    <s:row r="34" ht="60.75">
       <s:c r="A34" s="35" t="s">
-        <s:v>181</s:v>
+        <s:v>223</s:v>
       </s:c>
       <s:c r="B34" s="35" t="s">
-        <s:v>182</s:v>
+        <s:v>555</s:v>
       </s:c>
       <s:c r="C34" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D34" s="35" t="s">
-        <s:v>183</s:v>
+        <s:v>560</s:v>
       </s:c>
       <s:c r="E34" s="35" t="s">
-        <s:v>543</s:v>
+        <s:v>564</s:v>
       </s:c>
       <s:c r="F34" s="35" t="s">
-        <s:v>543</s:v>
+        <s:v>564</s:v>
       </s:c>
       <s:c r="G34" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H34" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I34" s="35" t="s">
         <s:v>44</s:v>
@@ -3979,24 +4392,24 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="35" ht="35.25">
+    <s:row r="35" ht="37.5">
       <s:c r="A35" s="35" t="s">
-        <s:v>186</s:v>
+        <s:v>226</s:v>
       </s:c>
       <s:c r="B35" s="35" t="s">
-        <s:v>187</s:v>
+        <s:v>232</s:v>
       </s:c>
       <s:c r="C35" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D35" s="35" t="s">
-        <s:v>188</s:v>
+        <s:v>233</s:v>
       </s:c>
       <s:c r="E35" s="35" t="s">
-        <s:v>189</s:v>
+        <s:v>234</s:v>
       </s:c>
       <s:c r="F35" s="35" t="s">
-        <s:v>189</s:v>
+        <s:v>234</s:v>
       </s:c>
       <s:c r="G35" s="35" t="s">
         <s:v>42</s:v>
@@ -4017,27 +4430,27 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="36" ht="46.5">
+    <s:row r="36" ht="37.5">
       <s:c r="A36" s="35" t="s">
-        <s:v>191</s:v>
+        <s:v>231</s:v>
       </s:c>
       <s:c r="B36" s="35" t="s">
-        <s:v>192</s:v>
+        <s:v>236</s:v>
       </s:c>
       <s:c r="C36" s="35" t="s">
-        <s:v>193</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D36" s="35" t="s">
-        <s:v>546</s:v>
+        <s:v>565</s:v>
       </s:c>
       <s:c r="E36" s="35" t="s">
-        <s:v>195</s:v>
+        <s:v>725</s:v>
       </s:c>
       <s:c r="F36" s="35" t="s">
-        <s:v>157</s:v>
+        <s:v>725</s:v>
       </s:c>
       <s:c r="G36" s="35" t="s">
-        <s:v>158</s:v>
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H36" s="35" t="s">
         <s:v>43</s:v>
@@ -4046,33 +4459,33 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J36" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K36" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L36" s="35" t="s">
-        <s:v>159</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="37" ht="24.75">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="37" ht="72.75">
       <s:c r="A37" s="35" t="s">
-        <s:v>196</s:v>
+        <s:v>235</s:v>
       </s:c>
       <s:c r="B37" s="35" t="s">
-        <s:v>197</s:v>
+        <s:v>655</s:v>
       </s:c>
       <s:c r="C37" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>149</s:v>
       </s:c>
       <s:c r="D37" s="35" t="s">
-        <s:v>547</s:v>
+        <s:v>571</s:v>
       </s:c>
       <s:c r="E37" s="35" t="s">
-        <s:v>199</s:v>
+        <s:v>242</s:v>
       </s:c>
       <s:c r="F37" s="35" t="s">
-        <s:v>199</s:v>
+        <s:v>242</s:v>
       </s:c>
       <s:c r="G37" s="35" t="s">
         <s:v>42</s:v>
@@ -4093,30 +4506,30 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="38" ht="46.5">
+    <s:row r="38" ht="49.5">
       <s:c r="A38" s="35" t="s">
-        <s:v>201</s:v>
+        <s:v>239</s:v>
       </s:c>
       <s:c r="B38" s="35" t="s">
-        <s:v>202</s:v>
+        <s:v>573</s:v>
       </s:c>
       <s:c r="C38" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>246</s:v>
       </s:c>
       <s:c r="D38" s="35" t="s">
-        <s:v>548</s:v>
+        <s:v>574</s:v>
       </s:c>
       <s:c r="E38" s="35" t="s">
-        <s:v>549</s:v>
+        <s:v>687</s:v>
       </s:c>
       <s:c r="F38" s="35" t="s">
-        <s:v>205</s:v>
+        <s:v>687</s:v>
       </s:c>
       <s:c r="G38" s="35" t="s">
-        <s:v>415</s:v>
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H38" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I38" s="35" t="s">
         <s:v>44</s:v>
@@ -4131,40 +4544,62 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="39" ht="14.25">
-      <s:c r="A39" s="36" t="s">
-        <s:v>222</s:v>
-      </s:c>
-      <s:c r="B39" s="37"/>
-      <s:c r="C39" s="37"/>
-      <s:c r="D39" s="37"/>
-      <s:c r="E39" s="37"/>
-      <s:c r="F39" s="37"/>
-      <s:c r="G39" s="37"/>
-      <s:c r="H39" s="37"/>
-      <s:c r="I39" s="37"/>
-      <s:c r="J39" s="37"/>
-      <s:c r="K39" s="37"/>
-      <s:c r="L39" s="37"/>
-    </s:row>
-    <s:row r="40" ht="24.75">
+    <s:row r="39" ht="49.5">
+      <s:c r="A39" s="35" t="s">
+        <s:v>244</s:v>
+      </s:c>
+      <s:c r="B39" s="35" t="s">
+        <s:v>567</s:v>
+      </s:c>
+      <s:c r="C39" s="35" t="s">
+        <s:v>246</s:v>
+      </s:c>
+      <s:c r="D39" s="35" t="s">
+        <s:v>569</s:v>
+      </s:c>
+      <s:c r="E39" s="35" t="s">
+        <s:v>688</s:v>
+      </s:c>
+      <s:c r="F39" s="35" t="s">
+        <s:v>249</s:v>
+      </s:c>
+      <s:c r="G39" s="35" t="s">
+        <s:v>415</s:v>
+      </s:c>
+      <s:c r="H39" s="35" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I39" s="35" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J39" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K39" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L39" s="35" t="s">
+        <s:v>690</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="40" ht="60.75">
       <s:c r="A40" s="35" t="s">
-        <s:v>223</s:v>
+        <s:v>572</s:v>
       </s:c>
       <s:c r="B40" s="35" t="s">
-        <s:v>553</s:v>
+        <s:v>161</s:v>
       </s:c>
       <s:c r="C40" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>162</s:v>
       </s:c>
       <s:c r="D40" s="35" t="s">
-        <s:v>554</s:v>
+        <s:v>538</s:v>
       </s:c>
       <s:c r="E40" s="35" t="s">
-        <s:v>541</s:v>
-      </s:c>
-      <s:c r="F40" s="35" t="s">
-        <s:v>541</s:v>
+        <s:v>578</s:v>
+      </s:c>
+      <s:c r="F40" s="53" t="s">
+        <s:v>691</s:v>
       </s:c>
       <s:c r="G40" s="35" t="s">
         <s:v>42</s:v>
@@ -4185,30 +4620,30 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="41" ht="57">
+    <s:row r="41" ht="49.5">
       <s:c r="A41" s="35" t="s">
-        <s:v>226</s:v>
+        <s:v>577</s:v>
       </s:c>
       <s:c r="B41" s="35" t="s">
-        <s:v>555</s:v>
+        <s:v>550</s:v>
       </s:c>
       <s:c r="C41" s="35" t="s">
         <s:v>149</s:v>
       </s:c>
       <s:c r="D41" s="35" t="s">
-        <s:v>560</s:v>
+        <s:v>582</s:v>
       </s:c>
       <s:c r="E41" s="35" t="s">
-        <s:v>564</s:v>
+        <s:v>210</s:v>
       </s:c>
       <s:c r="F41" s="35" t="s">
-        <s:v>564</s:v>
+        <s:v>211</s:v>
       </s:c>
       <s:c r="G41" s="35" t="s">
-        <s:v>42</s:v>
+        <s:v>415</s:v>
       </s:c>
       <s:c r="H41" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I41" s="35" t="s">
         <s:v>44</s:v>
@@ -4220,27 +4655,27 @@
         <s:v>45</s:v>
       </s:c>
       <s:c r="L41" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="42" ht="35.25">
+        <s:v>692</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="42" ht="49.5">
       <s:c r="A42" s="35" t="s">
-        <s:v>231</s:v>
+        <s:v>686</s:v>
       </s:c>
       <s:c r="B42" s="35" t="s">
-        <s:v>232</s:v>
+        <s:v>213</s:v>
       </s:c>
       <s:c r="C42" s="35" t="s">
-        <s:v>149</s:v>
+        <s:v>214</s:v>
       </s:c>
       <s:c r="D42" s="35" t="s">
-        <s:v>233</s:v>
+        <s:v>583</s:v>
       </s:c>
       <s:c r="E42" s="35" t="s">
-        <s:v>234</s:v>
+        <s:v>216</s:v>
       </s:c>
       <s:c r="F42" s="35" t="s">
-        <s:v>234</s:v>
+        <s:v>216</s:v>
       </s:c>
       <s:c r="G42" s="35" t="s">
         <s:v>42</s:v>
@@ -4261,30 +4696,30 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="43" ht="35.25">
+    <s:row r="43" ht="49.5">
       <s:c r="A43" s="35" t="s">
-        <s:v>235</s:v>
+        <s:v>580</s:v>
       </s:c>
       <s:c r="B43" s="35" t="s">
-        <s:v>236</s:v>
+        <s:v>219</s:v>
       </s:c>
       <s:c r="C43" s="35" t="s">
-        <s:v>149</s:v>
+        <s:v>214</s:v>
       </s:c>
       <s:c r="D43" s="35" t="s">
-        <s:v>565</s:v>
+        <s:v>584</s:v>
       </s:c>
       <s:c r="E43" s="35" t="s">
-        <s:v>238</s:v>
+        <s:v>221</s:v>
       </s:c>
       <s:c r="F43" s="35" t="s">
-        <s:v>238</s:v>
+        <s:v>221</s:v>
       </s:c>
       <s:c r="G43" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H43" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I43" s="35" t="s">
         <s:v>44</s:v>
@@ -4299,62 +4734,40 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="44" ht="69.75">
-      <s:c r="A44" s="35" t="s">
-        <s:v>239</s:v>
-      </s:c>
-      <s:c r="B44" s="47" t="s">
-        <s:v>655</s:v>
-      </s:c>
-      <s:c r="C44" s="35" t="s">
-        <s:v>149</s:v>
-      </s:c>
-      <s:c r="D44" s="35" t="s">
-        <s:v>571</s:v>
-      </s:c>
-      <s:c r="E44" s="35" t="s">
-        <s:v>242</s:v>
-      </s:c>
-      <s:c r="F44" s="35" t="s">
-        <s:v>242</s:v>
-      </s:c>
-      <s:c r="G44" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H44" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I44" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J44" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K44" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L44" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="45" ht="46.5">
+    <s:row r="44">
+      <s:c r="A44" s="58" t="s">
+        <s:v>251</s:v>
+      </s:c>
+      <s:c r="B44" s="60"/>
+      <s:c r="C44" s="60"/>
+      <s:c r="D44" s="60"/>
+      <s:c r="E44" s="60"/>
+      <s:c r="F44" s="60"/>
+      <s:c r="G44" s="60"/>
+      <s:c r="H44" s="60"/>
+      <s:c r="I44" s="60"/>
+      <s:c r="J44" s="60"/>
+      <s:c r="K44" s="60"/>
+      <s:c r="L44" s="60"/>
+    </s:row>
+    <s:row r="45" ht="84">
       <s:c r="A45" s="35" t="s">
-        <s:v>244</s:v>
+        <s:v>252</s:v>
       </s:c>
       <s:c r="B45" s="35" t="s">
-        <s:v>573</s:v>
+        <s:v>253</s:v>
       </s:c>
       <s:c r="C45" s="35" t="s">
-        <s:v>246</s:v>
+        <s:v>169</s:v>
       </s:c>
       <s:c r="D45" s="35" t="s">
-        <s:v>574</s:v>
+        <s:v>585</s:v>
       </s:c>
       <s:c r="E45" s="35" t="s">
-        <s:v>576</s:v>
+        <s:v>586</s:v>
       </s:c>
       <s:c r="F45" s="35" t="s">
-        <s:v>576</s:v>
+        <s:v>586</s:v>
       </s:c>
       <s:c r="G45" s="35" t="s">
         <s:v>42</s:v>
@@ -4371,70 +4784,72 @@
       <s:c r="K45" s="35" t="s">
         <s:v>45</s:v>
       </s:c>
-      <s:c r="L45" s="35"/>
-    </s:row>
-    <s:row r="46" ht="46.5">
+      <s:c r="L45" s="35" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="46" ht="49.5">
       <s:c r="A46" s="35" t="s">
-        <s:v>572</s:v>
+        <s:v>256</s:v>
       </s:c>
       <s:c r="B46" s="35" t="s">
-        <s:v>567</s:v>
+        <s:v>603</s:v>
       </s:c>
       <s:c r="C46" s="35" t="s">
-        <s:v>246</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D46" s="35" t="s">
-        <s:v>569</s:v>
+        <s:v>604</s:v>
       </s:c>
       <s:c r="E46" s="35" t="s">
-        <s:v>575</s:v>
+        <s:v>281</s:v>
       </s:c>
       <s:c r="F46" s="35" t="s">
-        <s:v>249</s:v>
+        <s:v>282</s:v>
       </s:c>
       <s:c r="G46" s="35" t="s">
         <s:v>415</s:v>
       </s:c>
       <s:c r="H46" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I46" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J46" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="K46" s="35" t="s">
-        <s:v>45</s:v>
+        <s:v>59</s:v>
       </s:c>
       <s:c r="L46" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="47" ht="57">
+        <s:v>715</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="47" ht="49.5">
       <s:c r="A47" s="35" t="s">
-        <s:v>577</s:v>
+        <s:v>262</s:v>
       </s:c>
       <s:c r="B47" s="35" t="s">
-        <s:v>161</s:v>
+        <s:v>605</s:v>
       </s:c>
       <s:c r="C47" s="35" t="s">
-        <s:v>162</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D47" s="35" t="s">
-        <s:v>538</s:v>
+        <s:v>606</s:v>
       </s:c>
       <s:c r="E47" s="35" t="s">
-        <s:v>578</s:v>
-      </s:c>
-      <s:c r="F47" s="38" t="s">
-        <s:v>572</s:v>
+        <s:v>288</s:v>
+      </s:c>
+      <s:c r="F47" s="35" t="s">
+        <s:v>288</s:v>
       </s:c>
       <s:c r="G47" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H47" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I47" s="35" t="s">
         <s:v>44</s:v>
@@ -4449,30 +4864,30 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="48">
+    <s:row r="48" ht="60.75">
       <s:c r="A48" s="35" t="s">
-        <s:v>579</s:v>
+        <s:v>266</s:v>
       </s:c>
       <s:c r="B48" s="35" t="s">
-        <s:v>550</s:v>
+        <s:v>607</s:v>
       </s:c>
       <s:c r="C48" s="35" t="s">
-        <s:v>149</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D48" s="35" t="s">
-        <s:v>582</s:v>
+        <s:v>609</s:v>
       </s:c>
       <s:c r="E48" s="35" t="s">
-        <s:v>210</s:v>
+        <s:v>611</s:v>
       </s:c>
       <s:c r="F48" s="35" t="s">
-        <s:v>211</s:v>
+        <s:v>693</s:v>
       </s:c>
       <s:c r="G48" s="35" t="s">
-        <s:v>415</s:v>
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H48" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I48" s="35" t="s">
         <s:v>44</s:v>
@@ -4484,33 +4899,33 @@
         <s:v>45</s:v>
       </s:c>
       <s:c r="L48" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="49">
+        <s:v>695</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="49" ht="49.5">
       <s:c r="A49" s="35" t="s">
-        <s:v>580</s:v>
+        <s:v>270</s:v>
       </s:c>
       <s:c r="B49" s="35" t="s">
-        <s:v>213</s:v>
+        <s:v>454</s:v>
       </s:c>
       <s:c r="C49" s="35" t="s">
-        <s:v>214</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D49" s="35" t="s">
-        <s:v>583</s:v>
+        <s:v>612</s:v>
       </s:c>
       <s:c r="E49" s="35" t="s">
-        <s:v>216</s:v>
+        <s:v>456</s:v>
       </s:c>
       <s:c r="F49" s="35" t="s">
-        <s:v>216</s:v>
+        <s:v>456</s:v>
       </s:c>
       <s:c r="G49" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H49" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I49" s="35" t="s">
         <s:v>44</s:v>
@@ -4525,24 +4940,24 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="50">
+    <s:row r="50" ht="60.75">
       <s:c r="A50" s="35" t="s">
-        <s:v>581</s:v>
+        <s:v>274</s:v>
       </s:c>
       <s:c r="B50" s="35" t="s">
-        <s:v>219</s:v>
+        <s:v>615</s:v>
       </s:c>
       <s:c r="C50" s="35" t="s">
-        <s:v>214</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D50" s="35" t="s">
-        <s:v>584</s:v>
+        <s:v>459</s:v>
       </s:c>
       <s:c r="E50" s="35" t="s">
-        <s:v>221</s:v>
+        <s:v>613</s:v>
       </s:c>
       <s:c r="F50" s="35" t="s">
-        <s:v>221</s:v>
+        <s:v>693</s:v>
       </s:c>
       <s:c r="G50" s="35" t="s">
         <s:v>42</s:v>
@@ -4560,49 +4975,71 @@
         <s:v>45</s:v>
       </s:c>
       <s:c r="L50" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="51">
-      <s:c r="A51" s="36" t="s">
-        <s:v>251</s:v>
-      </s:c>
-      <s:c r="B51" s="37"/>
-      <s:c r="C51" s="37"/>
-      <s:c r="D51" s="37"/>
-      <s:c r="E51" s="37"/>
-      <s:c r="F51" s="37"/>
-      <s:c r="G51" s="37"/>
-      <s:c r="H51" s="37"/>
-      <s:c r="I51" s="37"/>
-      <s:c r="J51" s="37"/>
-      <s:c r="K51" s="37"/>
-      <s:c r="L51" s="37"/>
-    </s:row>
-    <s:row r="52" ht="78.75">
+        <s:v>695</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="51" ht="60.75">
+      <s:c r="A51" s="35" t="s">
+        <s:v>278</s:v>
+      </s:c>
+      <s:c r="B51" s="35" t="s">
+        <s:v>616</s:v>
+      </s:c>
+      <s:c r="C51" s="35" t="s">
+        <s:v>258</s:v>
+      </s:c>
+      <s:c r="D51" s="35" t="s">
+        <s:v>696</s:v>
+      </s:c>
+      <s:c r="E51" s="35" t="s">
+        <s:v>697</s:v>
+      </s:c>
+      <s:c r="F51" s="35" t="s">
+        <s:v>464</s:v>
+      </s:c>
+      <s:c r="G51" s="35" t="s">
+        <s:v>415</s:v>
+      </s:c>
+      <s:c r="H51" s="35" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I51" s="35" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J51" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K51" s="35" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L51" s="35" t="s">
+        <s:v>717</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="52" ht="49.5">
       <s:c r="A52" s="35" t="s">
-        <s:v>252</s:v>
+        <s:v>285</s:v>
       </s:c>
       <s:c r="B52" s="35" t="s">
-        <s:v>253</s:v>
+        <s:v>619</s:v>
       </s:c>
       <s:c r="C52" s="35" t="s">
-        <s:v>169</s:v>
+        <s:v>258</s:v>
       </s:c>
       <s:c r="D52" s="35" t="s">
-        <s:v>585</s:v>
+        <s:v>620</s:v>
       </s:c>
       <s:c r="E52" s="35" t="s">
-        <s:v>586</s:v>
+        <s:v>697</s:v>
       </s:c>
       <s:c r="F52" s="35" t="s">
-        <s:v>586</s:v>
+        <s:v>590</s:v>
       </s:c>
       <s:c r="G52" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H52" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I52" s="35" t="s">
         <s:v>44</s:v>
@@ -4617,24 +5054,24 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="53" ht="46.5">
+    <s:row r="53" ht="60.75">
       <s:c r="A53" s="35" t="s">
-        <s:v>256</s:v>
+        <s:v>289</s:v>
       </s:c>
       <s:c r="B53" s="35" t="s">
-        <s:v>587</s:v>
+        <s:v>621</s:v>
       </s:c>
       <s:c r="C53" s="35" t="s">
         <s:v>258</s:v>
       </s:c>
       <s:c r="D53" s="35" t="s">
-        <s:v>589</s:v>
+        <s:v>622</s:v>
       </s:c>
       <s:c r="E53" s="35" t="s">
-        <s:v>590</s:v>
+        <s:v>477</s:v>
       </s:c>
       <s:c r="F53" s="35" t="s">
-        <s:v>590</s:v>
+        <s:v>477</s:v>
       </s:c>
       <s:c r="G53" s="35" t="s">
         <s:v>42</s:v>
@@ -4646,33 +5083,33 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J53" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K53" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L53" s="35" t="s">
-        <s:v>261</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="54" ht="46.5">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="54" ht="49.5">
       <s:c r="A54" s="35" t="s">
-        <s:v>262</s:v>
+        <s:v>294</s:v>
       </s:c>
       <s:c r="B54" s="35" t="s">
-        <s:v>591</s:v>
+        <s:v>316</s:v>
       </s:c>
       <s:c r="C54" s="35" t="s">
         <s:v>258</s:v>
       </s:c>
       <s:c r="D54" s="35" t="s">
-        <s:v>592</s:v>
+        <s:v>623</s:v>
       </s:c>
       <s:c r="E54" s="35" t="s">
-        <s:v>593</s:v>
+        <s:v>624</s:v>
       </s:c>
       <s:c r="F54" s="35" t="s">
-        <s:v>593</s:v>
+        <s:v>624</s:v>
       </s:c>
       <s:c r="G54" s="35" t="s">
         <s:v>42</s:v>
@@ -4684,33 +5121,33 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J54" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K54" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L54" s="35" t="s">
-        <s:v>261</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="55" ht="46.5">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="55" ht="60.75">
       <s:c r="A55" s="35" t="s">
-        <s:v>266</s:v>
+        <s:v>299</s:v>
       </s:c>
       <s:c r="B55" s="35" t="s">
-        <s:v>594</s:v>
+        <s:v>699</s:v>
       </s:c>
       <s:c r="C55" s="35" t="s">
         <s:v>258</s:v>
       </s:c>
       <s:c r="D55" s="35" t="s">
-        <s:v>595</s:v>
+        <s:v>700</s:v>
       </s:c>
       <s:c r="E55" s="35" t="s">
-        <s:v>596</s:v>
+        <s:v>701</s:v>
       </s:c>
       <s:c r="F55" s="35" t="s">
-        <s:v>596</s:v>
+        <s:v>701</s:v>
       </s:c>
       <s:c r="G55" s="35" t="s">
         <s:v>42</s:v>
@@ -4722,39 +5159,37 @@
         <s:v>44</s:v>
       </s:c>
       <s:c r="J55" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K55" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L55" s="35" t="s">
-        <s:v>261</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="56" ht="46.5">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L55" s="35"/>
+    </s:row>
+    <s:row r="56" ht="49.5">
       <s:c r="A56" s="35" t="s">
-        <s:v>270</s:v>
+        <s:v>306</s:v>
       </s:c>
       <s:c r="B56" s="35" t="s">
-        <s:v>597</s:v>
+        <s:v>706</s:v>
       </s:c>
       <s:c r="C56" s="35" t="s">
         <s:v>258</s:v>
       </s:c>
       <s:c r="D56" s="35" t="s">
-        <s:v>598</s:v>
+        <s:v>707</s:v>
       </s:c>
       <s:c r="E56" s="35" t="s">
-        <s:v>599</s:v>
+        <s:v>708</s:v>
       </s:c>
       <s:c r="F56" s="35" t="s">
-        <s:v>596</s:v>
+        <s:v>720</s:v>
       </s:c>
       <s:c r="G56" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H56" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I56" s="35" t="s">
         <s:v>44</s:v>
@@ -4766,109 +5201,87 @@
         <s:v>59</s:v>
       </s:c>
       <s:c r="L56" s="35" t="s">
-        <s:v>261</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="57" ht="46.5">
+        <s:v>714</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="57" ht="72.75">
       <s:c r="A57" s="35" t="s">
-        <s:v>274</s:v>
+        <s:v>310</s:v>
       </s:c>
       <s:c r="B57" s="35" t="s">
-        <s:v>600</s:v>
+        <s:v>709</s:v>
       </s:c>
       <s:c r="C57" s="35" t="s">
         <s:v>258</s:v>
       </s:c>
       <s:c r="D57" s="35" t="s">
-        <s:v>601</s:v>
+        <s:v>710</s:v>
       </s:c>
       <s:c r="E57" s="35" t="s">
-        <s:v>602</s:v>
+        <s:v>711</s:v>
       </s:c>
       <s:c r="F57" s="35" t="s">
-        <s:v>602</s:v>
+        <s:v>711</s:v>
       </s:c>
       <s:c r="G57" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H57" s="35" t="s">
-        <s:v>43</s:v>
+        <s:v>58</s:v>
       </s:c>
       <s:c r="I57" s="35" t="s">
         <s:v>44</s:v>
       </s:c>
       <s:c r="J57" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="K57" s="35" t="s">
-        <s:v>59</s:v>
+        <s:v>45</s:v>
       </s:c>
       <s:c r="L57" s="35" t="s">
-        <s:v>261</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="58" ht="46.5">
-      <s:c r="A58" s="35" t="s">
-        <s:v>278</s:v>
-      </s:c>
-      <s:c r="B58" s="35" t="s">
-        <s:v>603</s:v>
-      </s:c>
-      <s:c r="C58" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D58" s="35" t="s">
-        <s:v>604</s:v>
-      </s:c>
-      <s:c r="E58" s="35" t="s">
-        <s:v>281</s:v>
-      </s:c>
-      <s:c r="F58" s="35" t="s">
-        <s:v>282</s:v>
-      </s:c>
-      <s:c r="G58" s="35" t="s">
-        <s:v>415</s:v>
-      </s:c>
-      <s:c r="H58" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I58" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J58" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K58" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L58" s="35" t="s">
-        <s:v>284</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="59" ht="46.5">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="58">
+      <s:c r="A58" s="58" t="s">
+        <s:v>319</s:v>
+      </s:c>
+      <s:c r="B58" s="60"/>
+      <s:c r="C58" s="60"/>
+      <s:c r="D58" s="60"/>
+      <s:c r="E58" s="60"/>
+      <s:c r="F58" s="60"/>
+      <s:c r="G58" s="60"/>
+      <s:c r="H58" s="60"/>
+      <s:c r="I58" s="60"/>
+      <s:c r="J58" s="60"/>
+      <s:c r="K58" s="60"/>
+      <s:c r="L58" s="60"/>
+    </s:row>
+    <s:row r="59" ht="49.5">
       <s:c r="A59" s="35" t="s">
-        <s:v>285</s:v>
+        <s:v>320</s:v>
       </s:c>
       <s:c r="B59" s="35" t="s">
-        <s:v>605</s:v>
+        <s:v>335</s:v>
       </s:c>
       <s:c r="C59" s="35" t="s">
-        <s:v>258</s:v>
+        <s:v>322</s:v>
       </s:c>
       <s:c r="D59" s="35" t="s">
-        <s:v>606</s:v>
+        <s:v>637</s:v>
       </s:c>
       <s:c r="E59" s="35" t="s">
-        <s:v>288</s:v>
+        <s:v>624</s:v>
       </s:c>
       <s:c r="F59" s="35" t="s">
-        <s:v>288</s:v>
+        <s:v>624</s:v>
       </s:c>
       <s:c r="G59" s="35" t="s">
         <s:v>42</s:v>
       </s:c>
       <s:c r="H59" s="35" t="s">
-        <s:v>58</s:v>
+        <s:v>43</s:v>
       </s:c>
       <s:c r="I59" s="35" t="s">
         <s:v>44</s:v>
@@ -4883,27 +5296,27 @@
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="60" ht="57">
+    <s:row r="60" ht="72.75">
       <s:c r="A60" s="35" t="s">
-        <s:v>289</s:v>
+        <s:v>325</s:v>
       </s:c>
       <s:c r="B60" s="35" t="s">
-        <s:v>607</s:v>
+        <s:v>648</s:v>
       </s:c>
       <s:c r="C60" s="35" t="s">
-        <s:v>258</s:v>
+        <s:v>322</s:v>
       </s:c>
       <s:c r="D60" s="35" t="s">
-        <s:v>609</s:v>
+        <s:v>722</s:v>
       </s:c>
       <s:c r="E60" s="35" t="s">
-        <s:v>611</s:v>
-      </s:c>
-      <s:c r="F60" s="42" t="s">
-        <s:v>610</s:v>
-      </s:c>
-      <s:c r="G60" s="35" t="s">
-        <s:v>415</s:v>
+        <s:v>723</s:v>
+      </s:c>
+      <s:c r="F60" s="35" t="s">
+        <s:v>723</s:v>
+      </s:c>
+      <s:c r="G60" s="61" t="s">
+        <s:v>42</s:v>
       </s:c>
       <s:c r="H60" s="35" t="s">
         <s:v>43</s:v>
@@ -4917,961 +5330,487 @@
       <s:c r="K60" s="35" t="s">
         <s:v>45</s:v>
       </s:c>
-      <s:c r="L60" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="61" ht="46.5">
-      <s:c r="A61" s="35" t="s">
-        <s:v>294</s:v>
-      </s:c>
-      <s:c r="B61" s="35" t="s">
-        <s:v>454</s:v>
-      </s:c>
-      <s:c r="C61" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D61" s="35" t="s">
-        <s:v>612</s:v>
-      </s:c>
-      <s:c r="E61" s="35" t="s">
-        <s:v>456</s:v>
-      </s:c>
-      <s:c r="F61" s="35" t="s">
-        <s:v>456</s:v>
-      </s:c>
-      <s:c r="G61" s="35" t="s">
+      <s:c r="L60" s="35"/>
+    </s:row>
+    <s:row r="61">
+      <s:c r="A61" s="58" t="s">
+        <s:v>351</s:v>
+      </s:c>
+      <s:c r="B61" s="60"/>
+      <s:c r="C61" s="60"/>
+      <s:c r="D61" s="60"/>
+      <s:c r="E61" s="60"/>
+      <s:c r="F61" s="60"/>
+      <s:c r="G61" s="60"/>
+      <s:c r="H61" s="60"/>
+      <s:c r="I61" s="60"/>
+      <s:c r="J61" s="60"/>
+      <s:c r="K61" s="60"/>
+      <s:c r="L61" s="60"/>
+    </s:row>
+    <s:row r="62">
+      <s:c r="A62" s="61" t="s">
+        <s:v>352</s:v>
+      </s:c>
+      <s:c r="B62" s="61" t="s">
+        <s:v>353</s:v>
+      </s:c>
+      <s:c r="C62" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D62" s="61" t="s">
+        <s:v>646</s:v>
+      </s:c>
+      <s:c r="E62" s="61" t="s">
+        <s:v>647</s:v>
+      </s:c>
+      <s:c r="F62" s="61" t="s">
+        <s:v>647</s:v>
+      </s:c>
+      <s:c r="G62" s="61" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H61" s="35" t="s">
+      <s:c r="H62" s="61" t="s">
+        <s:v>356</s:v>
+      </s:c>
+      <s:c r="I62" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J62" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K62" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L62" s="61" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="63">
+      <s:c r="A63" s="58" t="s">
+        <s:v>357</s:v>
+      </s:c>
+      <s:c r="B63" s="60"/>
+      <s:c r="C63" s="60"/>
+      <s:c r="D63" s="60"/>
+      <s:c r="E63" s="60"/>
+      <s:c r="F63" s="60"/>
+      <s:c r="G63" s="60"/>
+      <s:c r="H63" s="60"/>
+      <s:c r="I63" s="60"/>
+      <s:c r="J63" s="60"/>
+      <s:c r="K63" s="60"/>
+      <s:c r="L63" s="60"/>
+    </s:row>
+    <s:row r="64">
+      <s:c r="A64" s="61" t="s">
+        <s:v>358</s:v>
+      </s:c>
+      <s:c r="B64" s="61" t="s">
+        <s:v>359</s:v>
+      </s:c>
+      <s:c r="C64" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D64" s="61" t="s">
+        <s:v>360</s:v>
+      </s:c>
+      <s:c r="E64" s="61" t="s">
+        <s:v>638</s:v>
+      </s:c>
+      <s:c r="F64" s="61" t="s">
+        <s:v>638</s:v>
+      </s:c>
+      <s:c r="G64" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H64" s="61" t="s">
+        <s:v>356</s:v>
+      </s:c>
+      <s:c r="I64" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J64" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K64" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L64" s="61" t="s">
+        <s:v>46</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="65">
+      <s:c r="A65" s="61" t="s">
+        <s:v>362</s:v>
+      </s:c>
+      <s:c r="B65" s="61" t="s">
+        <s:v>363</s:v>
+      </s:c>
+      <s:c r="C65" s="61" t="s">
+        <s:v>640</s:v>
+      </s:c>
+      <s:c r="D65" s="61" t="s">
+        <s:v>365</s:v>
+      </s:c>
+      <s:c r="E65" s="61" t="s">
+        <s:v>366</s:v>
+      </s:c>
+      <s:c r="F65" s="61" t="s">
+        <s:v>366</s:v>
+      </s:c>
+      <s:c r="G65" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H65" s="61" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I65" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J65" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K65" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L65" s="61" t="s">
+        <s:v>639</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="66">
+      <s:c r="A66" s="61" t="s">
+        <s:v>368</s:v>
+      </s:c>
+      <s:c r="B66" s="61" t="s">
+        <s:v>369</s:v>
+      </s:c>
+      <s:c r="C66" s="61" t="s">
+        <s:v>640</s:v>
+      </s:c>
+      <s:c r="D66" s="61" t="s">
+        <s:v>370</s:v>
+      </s:c>
+      <s:c r="E66" s="61" t="s">
+        <s:v>366</s:v>
+      </s:c>
+      <s:c r="F66" s="61" t="s">
+        <s:v>366</s:v>
+      </s:c>
+      <s:c r="G66" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H66" s="61" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I66" s="61" t="s">
+        <s:v>44</s:v>
+      </s:c>
+      <s:c r="J66" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K66" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L66" s="61" t="s">
+        <s:v>639</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="67">
+      <s:c r="A67" s="58" t="s">
+        <s:v>371</s:v>
+      </s:c>
+      <s:c r="B67" s="60"/>
+      <s:c r="C67" s="60"/>
+      <s:c r="D67" s="60"/>
+      <s:c r="E67" s="60"/>
+      <s:c r="F67" s="60"/>
+      <s:c r="G67" s="60"/>
+      <s:c r="H67" s="60"/>
+      <s:c r="I67" s="60"/>
+      <s:c r="J67" s="60"/>
+      <s:c r="K67" s="60"/>
+      <s:c r="L67" s="60"/>
+    </s:row>
+    <s:row r="68">
+      <s:c r="A68" s="61" t="s">
+        <s:v>372</s:v>
+      </s:c>
+      <s:c r="B68" s="61" t="s">
+        <s:v>373</s:v>
+      </s:c>
+      <s:c r="C68" s="61" t="s">
+        <s:v>374</s:v>
+      </s:c>
+      <s:c r="D68" s="61" t="s">
+        <s:v>375</s:v>
+      </s:c>
+      <s:c r="E68" s="61" t="s">
+        <s:v>376</s:v>
+      </s:c>
+      <s:c r="F68" s="61" t="s">
+        <s:v>376</s:v>
+      </s:c>
+      <s:c r="G68" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H68" s="61" t="s">
         <s:v>43</s:v>
       </s:c>
-      <s:c r="I61" s="35" t="s">
+      <s:c r="I68" s="61" t="s">
+        <s:v>377</s:v>
+      </s:c>
+      <s:c r="J68" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K68" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L68" s="61" t="s">
+        <s:v>378</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="69" ht="96">
+      <s:c r="A69" s="61" t="s">
+        <s:v>379</s:v>
+      </s:c>
+      <s:c r="B69" s="61" t="s">
+        <s:v>380</s:v>
+      </s:c>
+      <s:c r="C69" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D69" s="61" t="s">
+        <s:v>381</s:v>
+      </s:c>
+      <s:c r="E69" s="61" t="s">
+        <s:v>382</s:v>
+      </s:c>
+      <s:c r="F69" s="61" t="s">
+        <s:v>383</s:v>
+      </s:c>
+      <s:c r="G69" s="61" t="s">
+        <s:v>415</s:v>
+      </s:c>
+      <s:c r="H69" s="61" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I69" s="61" t="s">
+        <s:v>384</s:v>
+      </s:c>
+      <s:c r="J69" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K69" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L69" s="61" t="s">
+        <s:v>727</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="70">
+      <s:c r="A70" s="61" t="s">
+        <s:v>386</s:v>
+      </s:c>
+      <s:c r="B70" s="61" t="s">
+        <s:v>387</s:v>
+      </s:c>
+      <s:c r="C70" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D70" s="61" t="s">
+        <s:v>388</s:v>
+      </s:c>
+      <s:c r="E70" s="61" t="s">
+        <s:v>642</s:v>
+      </s:c>
+      <s:c r="F70" s="61" t="s">
+        <s:v>642</s:v>
+      </s:c>
+      <s:c r="G70" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H70" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I70" s="61" t="s">
+        <s:v>377</s:v>
+      </s:c>
+      <s:c r="J70" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K70" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L70" s="61" t="s">
+        <s:v>390</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="71">
+      <s:c r="A71" s="61" t="s">
+        <s:v>391</s:v>
+      </s:c>
+      <s:c r="B71" s="61" t="s">
+        <s:v>392</s:v>
+      </s:c>
+      <s:c r="C71" s="61" t="s">
+        <s:v>374</s:v>
+      </s:c>
+      <s:c r="D71" s="61" t="s">
+        <s:v>393</s:v>
+      </s:c>
+      <s:c r="E71" s="61" t="s">
+        <s:v>394</s:v>
+      </s:c>
+      <s:c r="F71" s="61" t="s">
+        <s:v>394</s:v>
+      </s:c>
+      <s:c r="G71" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H71" s="61" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I71" s="61" t="s">
+        <s:v>395</s:v>
+      </s:c>
+      <s:c r="J71" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K71" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L71" s="61" t="s">
+        <s:v>396</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="72">
+      <s:c r="A72" s="61" t="s">
+        <s:v>397</s:v>
+      </s:c>
+      <s:c r="B72" s="61" t="s">
+        <s:v>398</s:v>
+      </s:c>
+      <s:c r="C72" s="61" t="s">
+        <s:v>399</s:v>
+      </s:c>
+      <s:c r="D72" s="61" t="s">
+        <s:v>400</s:v>
+      </s:c>
+      <s:c r="E72" s="61" t="s">
+        <s:v>401</s:v>
+      </s:c>
+      <s:c r="F72" s="61" t="s">
+        <s:v>401</s:v>
+      </s:c>
+      <s:c r="G72" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H72" s="61" t="s">
+        <s:v>58</s:v>
+      </s:c>
+      <s:c r="I72" s="61" t="s">
+        <s:v>377</s:v>
+      </s:c>
+      <s:c r="J72" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="K72" s="61" t="s">
+        <s:v>59</s:v>
+      </s:c>
+      <s:c r="L72" s="61" t="s">
+        <s:v>402</s:v>
+      </s:c>
+    </s:row>
+    <s:row r="73">
+      <s:c r="A73" s="58" t="s">
+        <s:v>403</s:v>
+      </s:c>
+      <s:c r="B73" s="60"/>
+      <s:c r="C73" s="60"/>
+      <s:c r="D73" s="60"/>
+      <s:c r="E73" s="60"/>
+      <s:c r="F73" s="60"/>
+      <s:c r="G73" s="60"/>
+      <s:c r="H73" s="60"/>
+      <s:c r="I73" s="60"/>
+      <s:c r="J73" s="60"/>
+      <s:c r="K73" s="60"/>
+      <s:c r="L73" s="60"/>
+    </s:row>
+    <s:row r="74">
+      <s:c r="A74" s="61" t="s">
+        <s:v>404</s:v>
+      </s:c>
+      <s:c r="B74" s="61" t="s">
+        <s:v>403</s:v>
+      </s:c>
+      <s:c r="C74" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D74" s="61" t="s">
+        <s:v>405</s:v>
+      </s:c>
+      <s:c r="E74" s="61" t="s">
+        <s:v>406</s:v>
+      </s:c>
+      <s:c r="F74" s="61" t="s">
+        <s:v>406</s:v>
+      </s:c>
+      <s:c r="G74" s="61" t="s">
+        <s:v>42</s:v>
+      </s:c>
+      <s:c r="H74" s="61" t="s">
+        <s:v>43</s:v>
+      </s:c>
+      <s:c r="I74" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J61" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K61" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L61" s="35" t="s">
+      <s:c r="J74" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K74" s="61" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L74" s="61" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
-    <s:row r="62" ht="57">
-      <s:c r="A62" s="35" t="s">
-        <s:v>299</s:v>
-      </s:c>
-      <s:c r="B62" s="35" t="s">
-        <s:v>615</s:v>
-      </s:c>
-      <s:c r="C62" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D62" s="35" t="s">
-        <s:v>459</s:v>
-      </s:c>
-      <s:c r="E62" s="35" t="s">
-        <s:v>613</s:v>
-      </s:c>
-      <s:c r="F62" s="42" t="s">
-        <s:v>610</s:v>
-      </s:c>
-      <s:c r="G62" s="35" t="s">
+    <s:row r="75">
+      <s:c r="A75" s="61" t="s">
+        <s:v>643</s:v>
+      </s:c>
+      <s:c r="B75" s="61" t="s">
+        <s:v>443</s:v>
+      </s:c>
+      <s:c r="C75" s="61" t="s">
+        <s:v>169</s:v>
+      </s:c>
+      <s:c r="D75" s="61" t="s">
+        <s:v>486</s:v>
+      </s:c>
+      <s:c r="E75" s="61" t="s">
+        <s:v>445</s:v>
+      </s:c>
+      <s:c r="F75" s="61" t="s">
+        <s:v>446</s:v>
+      </s:c>
+      <s:c r="G75" s="61" t="s">
         <s:v>42</s:v>
       </s:c>
-      <s:c r="H62" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I62" s="35" t="s">
+      <s:c r="H75" s="61" t="s">
+        <s:v>356</s:v>
+      </s:c>
+      <s:c r="I75" s="61" t="s">
         <s:v>44</s:v>
       </s:c>
-      <s:c r="J62" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K62" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L62" s="35" t="s">
-        <s:v>614</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="63" ht="57">
-      <s:c r="A63" s="35" t="s">
-        <s:v>306</s:v>
-      </s:c>
-      <s:c r="B63" s="35" t="s">
-        <s:v>616</s:v>
-      </s:c>
-      <s:c r="C63" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D63" s="35" t="s">
-        <s:v>617</s:v>
-      </s:c>
-      <s:c r="E63" s="35" t="s">
-        <s:v>618</s:v>
-      </s:c>
-      <s:c r="F63" s="35" t="s">
-        <s:v>464</s:v>
-      </s:c>
-      <s:c r="G63" s="35" t="s">
-        <s:v>415</s:v>
-      </s:c>
-      <s:c r="H63" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I63" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J63" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K63" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L63" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="64" ht="46.5">
-      <s:c r="A64" s="35" t="s">
-        <s:v>310</s:v>
-      </s:c>
-      <s:c r="B64" s="35" t="s">
-        <s:v>619</s:v>
-      </s:c>
-      <s:c r="C64" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D64" s="35" t="s">
-        <s:v>620</s:v>
-      </s:c>
-      <s:c r="E64" s="35" t="s">
-        <s:v>618</s:v>
-      </s:c>
-      <s:c r="F64" s="22" t="s">
-        <s:v>590</s:v>
-      </s:c>
-      <s:c r="G64" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H64" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I64" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J64" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K64" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L64" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="65" ht="57">
-      <s:c r="A65" s="35" t="s">
-        <s:v>315</s:v>
-      </s:c>
-      <s:c r="B65" s="35" t="s">
-        <s:v>621</s:v>
-      </s:c>
-      <s:c r="C65" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D65" s="35" t="s">
-        <s:v>622</s:v>
-      </s:c>
-      <s:c r="E65" s="35" t="s">
-        <s:v>477</s:v>
-      </s:c>
-      <s:c r="F65" s="35" t="s">
-        <s:v>477</s:v>
-      </s:c>
-      <s:c r="G65" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H65" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I65" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J65" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K65" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L65" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="66" ht="46.5">
-      <s:c r="A66" s="35" t="s">
-        <s:v>474</s:v>
-      </s:c>
-      <s:c r="B66" s="35" t="s">
-        <s:v>316</s:v>
-      </s:c>
-      <s:c r="C66" s="35" t="s">
-        <s:v>258</s:v>
-      </s:c>
-      <s:c r="D66" s="35" t="s">
-        <s:v>623</s:v>
-      </s:c>
-      <s:c r="E66" s="35" t="s">
-        <s:v>624</s:v>
-      </s:c>
-      <s:c r="F66" s="35" t="s">
-        <s:v>624</s:v>
-      </s:c>
-      <s:c r="G66" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H66" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I66" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J66" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K66" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L66" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="67" ht="14.25">
-      <s:c r="A67" s="36" t="s">
-        <s:v>319</s:v>
-      </s:c>
-      <s:c r="B67" s="37"/>
-      <s:c r="C67" s="37"/>
-      <s:c r="D67" s="37"/>
-      <s:c r="E67" s="37"/>
-      <s:c r="F67" s="37"/>
-      <s:c r="G67" s="37"/>
-      <s:c r="H67" s="37"/>
-      <s:c r="I67" s="37"/>
-      <s:c r="J67" s="37"/>
-      <s:c r="K67" s="37"/>
-      <s:c r="L67" s="37"/>
-    </s:row>
-    <s:row r="68" ht="92.25">
-      <s:c r="A68" s="35" t="s">
-        <s:v>320</s:v>
-      </s:c>
-      <s:c r="B68" s="35" t="s">
-        <s:v>654</s:v>
-      </s:c>
-      <s:c r="C68" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D68" s="35" t="s">
-        <s:v>651</s:v>
-      </s:c>
-      <s:c r="E68" s="35" t="s">
-        <s:v>653</s:v>
-      </s:c>
-      <s:c r="F68" s="35" t="s">
-        <s:v>653</s:v>
-      </s:c>
-      <s:c r="G68" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H68" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I68" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J68" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K68" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L68" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="69">
-      <s:c r="A69" s="35" t="s">
-        <s:v>325</s:v>
-      </s:c>
-      <s:c r="B69" s="35" t="s">
-        <s:v>627</s:v>
-      </s:c>
-      <s:c r="C69" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D69" s="35" t="s">
-        <s:v>628</s:v>
-      </s:c>
-      <s:c r="E69" s="35" t="s">
-        <s:v>328</s:v>
-      </s:c>
-      <s:c r="F69" s="35" t="s">
-        <s:v>633</s:v>
-      </s:c>
-      <s:c r="G69" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H69" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I69" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J69" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K69" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L69" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="70" ht="35.25">
-      <s:c r="A70" s="35" t="s">
-        <s:v>329</s:v>
-      </s:c>
-      <s:c r="B70" s="35" t="s">
-        <s:v>625</s:v>
-      </s:c>
-      <s:c r="C70" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D70" s="35" t="s">
-        <s:v>629</s:v>
-      </s:c>
-      <s:c r="E70" s="35" t="s">
-        <s:v>328</s:v>
-      </s:c>
-      <s:c r="F70" s="35" t="s">
-        <s:v>633</s:v>
-      </s:c>
-      <s:c r="G70" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H70" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I70" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J70" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K70" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L70" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="71" ht="35.25">
-      <s:c r="A71" s="35" t="s">
-        <s:v>334</s:v>
-      </s:c>
-      <s:c r="B71" s="35" t="s">
-        <s:v>630</s:v>
-      </s:c>
-      <s:c r="C71" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D71" s="35" t="s">
-        <s:v>631</s:v>
-      </s:c>
-      <s:c r="E71" s="35" t="s">
-        <s:v>632</s:v>
-      </s:c>
-      <s:c r="F71" s="35" t="s">
-        <s:v>632</s:v>
-      </s:c>
-      <s:c r="G71" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H71" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I71" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J71" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K71" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L71" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="72">
-      <s:c r="A72" s="35" t="s">
-        <s:v>338</s:v>
-      </s:c>
-      <s:c r="B72" s="35" t="s">
-        <s:v>634</s:v>
-      </s:c>
-      <s:c r="C72" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D72" s="35" t="s">
-        <s:v>635</s:v>
-      </s:c>
-      <s:c r="E72" s="35" t="s">
-        <s:v>328</s:v>
-      </s:c>
-      <s:c r="F72" s="35" t="s">
-        <s:v>633</s:v>
-      </s:c>
-      <s:c r="G72" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H72" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I72" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J72" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K72" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L72" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="73" ht="46.5">
-      <s:c r="A73" s="35" t="s">
-        <s:v>636</s:v>
-      </s:c>
-      <s:c r="B73" s="35" t="s">
-        <s:v>335</s:v>
-      </s:c>
-      <s:c r="C73" s="35" t="s">
-        <s:v>322</s:v>
-      </s:c>
-      <s:c r="D73" s="35" t="s">
-        <s:v>637</s:v>
-      </s:c>
-      <s:c r="E73" s="35" t="s">
-        <s:v>624</s:v>
-      </s:c>
-      <s:c r="F73" s="35" t="s">
-        <s:v>624</s:v>
-      </s:c>
-      <s:c r="G73" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H73" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I73" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J73" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K73" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L73" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="74">
-      <s:c r="A74" s="36" t="s">
-        <s:v>351</s:v>
-      </s:c>
-      <s:c r="B74" s="37"/>
-      <s:c r="C74" s="37"/>
-      <s:c r="D74" s="37"/>
-      <s:c r="E74" s="37"/>
-      <s:c r="F74" s="37"/>
-      <s:c r="G74" s="37"/>
-      <s:c r="H74" s="37"/>
-      <s:c r="I74" s="37"/>
-      <s:c r="J74" s="37"/>
-      <s:c r="K74" s="37"/>
-      <s:c r="L74" s="37"/>
-    </s:row>
-    <s:row r="75" ht="69.75">
-      <s:c r="A75" s="35" t="s">
-        <s:v>352</s:v>
-      </s:c>
-      <s:c r="B75" s="35" t="s">
-        <s:v>353</s:v>
-      </s:c>
-      <s:c r="C75" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D75" s="35" t="s">
-        <s:v>646</s:v>
-      </s:c>
-      <s:c r="E75" s="35" t="s">
-        <s:v>647</s:v>
-      </s:c>
-      <s:c r="F75" s="35" t="s">
-        <s:v>647</s:v>
-      </s:c>
-      <s:c r="G75" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H75" s="35" t="s">
-        <s:v>356</s:v>
-      </s:c>
-      <s:c r="I75" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J75" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K75" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L75" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="76">
-      <s:c r="A76" s="36" t="s">
-        <s:v>357</s:v>
-      </s:c>
-      <s:c r="B76" s="37"/>
-      <s:c r="C76" s="37"/>
-      <s:c r="D76" s="37"/>
-      <s:c r="E76" s="37"/>
-      <s:c r="F76" s="37"/>
-      <s:c r="G76" s="37"/>
-      <s:c r="H76" s="37"/>
-      <s:c r="I76" s="37"/>
-      <s:c r="J76" s="37"/>
-      <s:c r="K76" s="37"/>
-      <s:c r="L76" s="37"/>
-    </s:row>
-    <s:row r="77" ht="46.5">
-      <s:c r="A77" s="35" t="s">
-        <s:v>358</s:v>
-      </s:c>
-      <s:c r="B77" s="35" t="s">
-        <s:v>359</s:v>
-      </s:c>
-      <s:c r="C77" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D77" s="35" t="s">
-        <s:v>360</s:v>
-      </s:c>
-      <s:c r="E77" s="35" t="s">
-        <s:v>638</s:v>
-      </s:c>
-      <s:c r="F77" s="35" t="s">
-        <s:v>638</s:v>
-      </s:c>
-      <s:c r="G77" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H77" s="35" t="s">
-        <s:v>356</s:v>
-      </s:c>
-      <s:c r="I77" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J77" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K77" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L77" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="78" ht="46.5">
-      <s:c r="A78" s="35" t="s">
-        <s:v>362</s:v>
-      </s:c>
-      <s:c r="B78" s="35" t="s">
-        <s:v>363</s:v>
-      </s:c>
-      <s:c r="C78" s="35" t="s">
-        <s:v>640</s:v>
-      </s:c>
-      <s:c r="D78" s="35" t="s">
-        <s:v>365</s:v>
-      </s:c>
-      <s:c r="E78" s="35" t="s">
-        <s:v>366</s:v>
-      </s:c>
-      <s:c r="F78" s="35" t="s">
-        <s:v>366</s:v>
-      </s:c>
-      <s:c r="G78" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H78" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I78" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J78" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K78" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L78" s="35" t="s">
-        <s:v>639</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="79" ht="46.5">
-      <s:c r="A79" s="35" t="s">
-        <s:v>368</s:v>
-      </s:c>
-      <s:c r="B79" s="35" t="s">
-        <s:v>369</s:v>
-      </s:c>
-      <s:c r="C79" s="35" t="s">
-        <s:v>640</s:v>
-      </s:c>
-      <s:c r="D79" s="35" t="s">
-        <s:v>370</s:v>
-      </s:c>
-      <s:c r="E79" s="35" t="s">
-        <s:v>366</s:v>
-      </s:c>
-      <s:c r="F79" s="35" t="s">
-        <s:v>366</s:v>
-      </s:c>
-      <s:c r="G79" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H79" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I79" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J79" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K79" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L79" s="35" t="s">
-        <s:v>639</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="80" ht="14.25">
-      <s:c r="A80" s="36" t="s">
-        <s:v>371</s:v>
-      </s:c>
-      <s:c r="B80" s="37"/>
-      <s:c r="C80" s="37"/>
-      <s:c r="D80" s="37"/>
-      <s:c r="E80" s="37"/>
-      <s:c r="F80" s="37"/>
-      <s:c r="G80" s="37"/>
-      <s:c r="H80" s="37"/>
-      <s:c r="I80" s="37"/>
-      <s:c r="J80" s="37"/>
-      <s:c r="K80" s="37"/>
-      <s:c r="L80" s="37"/>
-    </s:row>
-    <s:row r="81" ht="57">
-      <s:c r="A81" s="35" t="s">
-        <s:v>372</s:v>
-      </s:c>
-      <s:c r="B81" s="35" t="s">
-        <s:v>373</s:v>
-      </s:c>
-      <s:c r="C81" s="35" t="s">
-        <s:v>374</s:v>
-      </s:c>
-      <s:c r="D81" s="35" t="s">
-        <s:v>375</s:v>
-      </s:c>
-      <s:c r="E81" s="35" t="s">
-        <s:v>376</s:v>
-      </s:c>
-      <s:c r="F81" s="35" t="s">
-        <s:v>376</s:v>
-      </s:c>
-      <s:c r="G81" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H81" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I81" s="35" t="s">
-        <s:v>377</s:v>
-      </s:c>
-      <s:c r="J81" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K81" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L81" s="35" t="s">
-        <s:v>378</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="82" ht="35.25">
-      <s:c r="A82" s="35" t="s">
-        <s:v>379</s:v>
-      </s:c>
-      <s:c r="B82" s="35" t="s">
-        <s:v>380</s:v>
-      </s:c>
-      <s:c r="C82" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D82" s="35" t="s">
-        <s:v>381</s:v>
-      </s:c>
-      <s:c r="E82" s="35" t="s">
-        <s:v>382</s:v>
-      </s:c>
-      <s:c r="F82" s="35" t="s">
-        <s:v>383</s:v>
-      </s:c>
-      <s:c r="G82" s="35" t="s">
-        <s:v>415</s:v>
-      </s:c>
-      <s:c r="H82" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I82" s="35" t="s">
-        <s:v>384</s:v>
-      </s:c>
-      <s:c r="J82" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K82" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L82" s="35" t="s">
-        <s:v>510</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="83" ht="46.5">
-      <s:c r="A83" s="35" t="s">
-        <s:v>386</s:v>
-      </s:c>
-      <s:c r="B83" s="35" t="s">
-        <s:v>387</s:v>
-      </s:c>
-      <s:c r="C83" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D83" s="35" t="s">
-        <s:v>388</s:v>
-      </s:c>
-      <s:c r="E83" s="35" t="s">
-        <s:v>642</s:v>
-      </s:c>
-      <s:c r="F83" s="35" t="s">
-        <s:v>642</s:v>
-      </s:c>
-      <s:c r="G83" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H83" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I83" s="35" t="s">
-        <s:v>377</s:v>
-      </s:c>
-      <s:c r="J83" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K83" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L83" s="35" t="s">
-        <s:v>390</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="84" ht="57">
-      <s:c r="A84" s="35" t="s">
-        <s:v>391</s:v>
-      </s:c>
-      <s:c r="B84" s="35" t="s">
-        <s:v>392</s:v>
-      </s:c>
-      <s:c r="C84" s="35" t="s">
-        <s:v>374</s:v>
-      </s:c>
-      <s:c r="D84" s="35" t="s">
-        <s:v>393</s:v>
-      </s:c>
-      <s:c r="E84" s="35" t="s">
-        <s:v>394</s:v>
-      </s:c>
-      <s:c r="F84" s="35" t="s">
-        <s:v>394</s:v>
-      </s:c>
-      <s:c r="G84" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H84" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I84" s="35" t="s">
-        <s:v>395</s:v>
-      </s:c>
-      <s:c r="J84" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K84" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L84" s="35" t="s">
-        <s:v>396</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="85" ht="46.5">
-      <s:c r="A85" s="35" t="s">
-        <s:v>397</s:v>
-      </s:c>
-      <s:c r="B85" s="35" t="s">
-        <s:v>398</s:v>
-      </s:c>
-      <s:c r="C85" s="35" t="s">
-        <s:v>399</s:v>
-      </s:c>
-      <s:c r="D85" s="35" t="s">
-        <s:v>400</s:v>
-      </s:c>
-      <s:c r="E85" s="35" t="s">
-        <s:v>401</s:v>
-      </s:c>
-      <s:c r="F85" s="35" t="s">
-        <s:v>401</s:v>
-      </s:c>
-      <s:c r="G85" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H85" s="35" t="s">
-        <s:v>58</s:v>
-      </s:c>
-      <s:c r="I85" s="35" t="s">
-        <s:v>377</s:v>
-      </s:c>
-      <s:c r="J85" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="K85" s="35" t="s">
-        <s:v>59</s:v>
-      </s:c>
-      <s:c r="L85" s="35" t="s">
-        <s:v>402</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="86">
-      <s:c r="A86" s="36" t="s">
-        <s:v>403</s:v>
-      </s:c>
-      <s:c r="B86" s="37"/>
-      <s:c r="C86" s="37"/>
-      <s:c r="D86" s="37"/>
-      <s:c r="E86" s="37"/>
-      <s:c r="F86" s="37"/>
-      <s:c r="G86" s="37"/>
-      <s:c r="H86" s="37"/>
-      <s:c r="I86" s="37"/>
-      <s:c r="J86" s="37"/>
-      <s:c r="K86" s="37"/>
-      <s:c r="L86" s="37"/>
-    </s:row>
-    <s:row r="87" ht="35.25">
-      <s:c r="A87" s="35" t="s">
-        <s:v>404</s:v>
-      </s:c>
-      <s:c r="B87" s="35" t="s">
-        <s:v>403</s:v>
-      </s:c>
-      <s:c r="C87" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D87" s="35" t="s">
-        <s:v>405</s:v>
-      </s:c>
-      <s:c r="E87" s="35" t="s">
-        <s:v>406</s:v>
-      </s:c>
-      <s:c r="F87" s="35" t="s">
-        <s:v>406</s:v>
-      </s:c>
-      <s:c r="G87" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H87" s="35" t="s">
-        <s:v>43</s:v>
-      </s:c>
-      <s:c r="I87" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J87" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K87" s="35" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L87" s="35" t="s">
-        <s:v>46</s:v>
-      </s:c>
-    </s:row>
-    <s:row r="88">
-      <s:c r="A88" s="35" t="s">
-        <s:v>643</s:v>
-      </s:c>
-      <s:c r="B88" s="35" t="s">
-        <s:v>443</s:v>
-      </s:c>
-      <s:c r="C88" s="35" t="s">
-        <s:v>169</s:v>
-      </s:c>
-      <s:c r="D88" s="35" t="s">
-        <s:v>486</s:v>
-      </s:c>
-      <s:c r="E88" s="35" t="s">
-        <s:v>445</s:v>
-      </s:c>
-      <s:c r="F88" s="35" t="s">
-        <s:v>446</s:v>
-      </s:c>
-      <s:c r="G88" s="35" t="s">
-        <s:v>42</s:v>
-      </s:c>
-      <s:c r="H88" s="35" t="s">
-        <s:v>356</s:v>
-      </s:c>
-      <s:c r="I88" s="35" t="s">
-        <s:v>44</s:v>
-      </s:c>
-      <s:c r="J88" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="K88" s="41" t="s">
-        <s:v>45</s:v>
-      </s:c>
-      <s:c r="L88" s="35" t="s">
+      <s:c r="J75" s="67" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="K75" s="67" t="s">
+        <s:v>45</s:v>
+      </s:c>
+      <s:c r="L75" s="61" t="s">
         <s:v>46</s:v>
       </s:c>
     </s:row>
@@ -5879,17 +5818,17 @@
   <s:mergeCells count="13">
     <s:mergeCell ref="A1:L1"/>
     <s:mergeCell ref="A3:L3"/>
-    <s:mergeCell ref="A16:L16"/>
-    <s:mergeCell ref="A21:L21"/>
-    <s:mergeCell ref="A24:L24"/>
-    <s:mergeCell ref="A32:L32"/>
-    <s:mergeCell ref="A39:L39"/>
-    <s:mergeCell ref="A51:L51"/>
+    <s:mergeCell ref="A10:L10"/>
+    <s:mergeCell ref="A15:L15"/>
+    <s:mergeCell ref="A18:L18"/>
+    <s:mergeCell ref="A26:L26"/>
+    <s:mergeCell ref="A33:L33"/>
+    <s:mergeCell ref="A44:L44"/>
+    <s:mergeCell ref="A58:L58"/>
+    <s:mergeCell ref="A61:L61"/>
+    <s:mergeCell ref="A63:L63"/>
     <s:mergeCell ref="A67:L67"/>
-    <s:mergeCell ref="A74:L74"/>
-    <s:mergeCell ref="A76:L76"/>
-    <s:mergeCell ref="A80:L80"/>
-    <s:mergeCell ref="A86:L86"/>
+    <s:mergeCell ref="A73:L73"/>
   </s:mergeCells>
 </s:worksheet>
 </file>